--- a/apps/imputationhomog/Imputation Placement.xlsx
+++ b/apps/imputationhomog/Imputation Placement.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drjor\Documents\tinsel\apps\imputationhomog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4031A28B-6E4B-48AD-A45C-9DC838F1B862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DBFE3C-C8BA-4F02-98F8-4734FF0D8F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0C236103-F992-4580-ADEB-69FDAD861B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="26">
   <si>
     <t>Core 0</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Core 3</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -566,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8E2218-A1A9-45C6-83A7-1D4D88E1E785}">
   <dimension ref="A1:AW168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="AV159" sqref="AV159:AW168"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AS104" sqref="AS104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5586,60 +5598,66 @@
         <v>21</v>
       </c>
       <c r="M123" s="4"/>
-      <c r="O123" s="6" t="s">
+      <c r="O123" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="P123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R123" s="6" t="s">
+      <c r="P123" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R123" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S123" s="6"/>
-      <c r="U123" s="6" t="s">
+      <c r="S123" s="11"/>
+      <c r="U123" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V123" s="6"/>
-      <c r="X123" s="6" t="s">
+      <c r="V123" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X123" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Y123" s="6"/>
-      <c r="AA123" s="7" t="s">
+      <c r="Y123" s="11"/>
+      <c r="AA123" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AB123" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD123" s="7" t="s">
+      <c r="AB123" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD123" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AE123" s="7"/>
-      <c r="AG123" s="7" t="s">
+      <c r="AE123" s="12"/>
+      <c r="AG123" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AH123" s="7"/>
-      <c r="AJ123" s="7" t="s">
+      <c r="AH123" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ123" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AK123" s="7"/>
-      <c r="AM123" s="8" t="s">
+      <c r="AK123" s="12"/>
+      <c r="AM123" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AN123" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP123" s="8" t="s">
+      <c r="AN123" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP123" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AQ123" s="8"/>
-      <c r="AS123" s="8" t="s">
+      <c r="AQ123" s="18"/>
+      <c r="AS123" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AT123" s="8"/>
-      <c r="AV123" s="8" t="s">
+      <c r="AT123" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV123" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AW123" s="8"/>
+      <c r="AW123" s="18"/>
     </row>
     <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C124" s="4"/>
@@ -5650,30 +5668,30 @@
       <c r="J124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="6"/>
-      <c r="X124" s="6"/>
-      <c r="Y124" s="6"/>
-      <c r="AA124" s="7"/>
-      <c r="AB124" s="7"/>
-      <c r="AD124" s="7"/>
-      <c r="AE124" s="7"/>
-      <c r="AG124" s="7"/>
-      <c r="AH124" s="7"/>
-      <c r="AJ124" s="7"/>
-      <c r="AK124" s="7"/>
-      <c r="AM124" s="8"/>
-      <c r="AN124" s="8"/>
-      <c r="AP124" s="8"/>
-      <c r="AQ124" s="8"/>
-      <c r="AS124" s="8"/>
-      <c r="AT124" s="8"/>
-      <c r="AV124" s="8"/>
-      <c r="AW124" s="8"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="U124" s="11"/>
+      <c r="V124" s="11"/>
+      <c r="X124" s="11"/>
+      <c r="Y124" s="11"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
+      <c r="AD124" s="12"/>
+      <c r="AE124" s="12"/>
+      <c r="AG124" s="12"/>
+      <c r="AH124" s="12"/>
+      <c r="AJ124" s="12"/>
+      <c r="AK124" s="12"/>
+      <c r="AM124" s="18"/>
+      <c r="AN124" s="18"/>
+      <c r="AP124" s="18"/>
+      <c r="AQ124" s="18"/>
+      <c r="AS124" s="18"/>
+      <c r="AT124" s="18"/>
+      <c r="AV124" s="18"/>
+      <c r="AW124" s="18"/>
     </row>
     <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="C125" s="4">
@@ -5700,76 +5718,76 @@
       <c r="M125" s="4">
         <v>56</v>
       </c>
-      <c r="O125" s="6">
+      <c r="O125" s="11">
         <v>0</v>
       </c>
-      <c r="P125" s="6">
+      <c r="P125" s="11">
         <v>8</v>
       </c>
-      <c r="R125" s="6">
+      <c r="R125" s="11">
         <v>16</v>
       </c>
-      <c r="S125" s="6">
+      <c r="S125" s="11">
         <v>24</v>
       </c>
-      <c r="U125" s="6">
+      <c r="U125" s="11">
         <v>32</v>
       </c>
-      <c r="V125" s="6">
+      <c r="V125" s="11">
         <v>40</v>
       </c>
-      <c r="X125" s="6">
+      <c r="X125" s="11">
         <v>48</v>
       </c>
-      <c r="Y125" s="6">
+      <c r="Y125" s="11">
         <v>56</v>
       </c>
-      <c r="AA125" s="7">
+      <c r="AA125" s="12">
         <v>0</v>
       </c>
-      <c r="AB125" s="7">
+      <c r="AB125" s="12">
         <v>8</v>
       </c>
-      <c r="AD125" s="7">
+      <c r="AD125" s="12">
         <v>16</v>
       </c>
-      <c r="AE125" s="7">
+      <c r="AE125" s="12">
         <v>24</v>
       </c>
-      <c r="AG125" s="7">
+      <c r="AG125" s="12">
         <v>32</v>
       </c>
-      <c r="AH125" s="7">
+      <c r="AH125" s="12">
         <v>40</v>
       </c>
-      <c r="AJ125" s="7">
+      <c r="AJ125" s="12">
         <v>48</v>
       </c>
-      <c r="AK125" s="7">
+      <c r="AK125" s="12">
         <v>56</v>
       </c>
-      <c r="AM125" s="8">
+      <c r="AM125" s="18">
         <v>0</v>
       </c>
-      <c r="AN125" s="8">
+      <c r="AN125" s="18">
         <v>8</v>
       </c>
-      <c r="AP125" s="8">
+      <c r="AP125" s="18">
         <v>16</v>
       </c>
-      <c r="AQ125" s="8">
+      <c r="AQ125" s="18">
         <v>24</v>
       </c>
-      <c r="AS125" s="8">
+      <c r="AS125" s="18">
         <v>32</v>
       </c>
-      <c r="AT125" s="8">
+      <c r="AT125" s="18">
         <v>40</v>
       </c>
-      <c r="AV125" s="8">
+      <c r="AV125" s="18">
         <v>48</v>
       </c>
-      <c r="AW125" s="8">
+      <c r="AW125" s="18">
         <v>56</v>
       </c>
     </row>
@@ -5798,76 +5816,76 @@
       <c r="M126" s="4">
         <v>57</v>
       </c>
-      <c r="O126" s="6">
+      <c r="O126" s="11">
         <v>1</v>
       </c>
-      <c r="P126" s="6">
+      <c r="P126" s="11">
         <v>9</v>
       </c>
-      <c r="R126" s="6">
+      <c r="R126" s="11">
         <v>17</v>
       </c>
-      <c r="S126" s="6">
+      <c r="S126" s="11">
         <v>25</v>
       </c>
-      <c r="U126" s="6">
+      <c r="U126" s="11">
         <v>33</v>
       </c>
-      <c r="V126" s="6">
+      <c r="V126" s="11">
         <v>41</v>
       </c>
-      <c r="X126" s="6">
+      <c r="X126" s="11">
         <v>49</v>
       </c>
-      <c r="Y126" s="6">
+      <c r="Y126" s="11">
         <v>57</v>
       </c>
-      <c r="AA126" s="7">
+      <c r="AA126" s="12">
         <v>1</v>
       </c>
-      <c r="AB126" s="7">
+      <c r="AB126" s="12">
         <v>9</v>
       </c>
-      <c r="AD126" s="7">
+      <c r="AD126" s="12">
         <v>17</v>
       </c>
-      <c r="AE126" s="7">
+      <c r="AE126" s="12">
         <v>25</v>
       </c>
-      <c r="AG126" s="7">
+      <c r="AG126" s="12">
         <v>33</v>
       </c>
-      <c r="AH126" s="7">
+      <c r="AH126" s="12">
         <v>41</v>
       </c>
-      <c r="AJ126" s="7">
+      <c r="AJ126" s="12">
         <v>49</v>
       </c>
-      <c r="AK126" s="7">
+      <c r="AK126" s="12">
         <v>57</v>
       </c>
-      <c r="AM126" s="8">
+      <c r="AM126" s="18">
         <v>1</v>
       </c>
-      <c r="AN126" s="8">
+      <c r="AN126" s="18">
         <v>9</v>
       </c>
-      <c r="AP126" s="8">
+      <c r="AP126" s="18">
         <v>17</v>
       </c>
-      <c r="AQ126" s="8">
+      <c r="AQ126" s="18">
         <v>25</v>
       </c>
-      <c r="AS126" s="8">
+      <c r="AS126" s="18">
         <v>33</v>
       </c>
-      <c r="AT126" s="8">
+      <c r="AT126" s="18">
         <v>41</v>
       </c>
-      <c r="AV126" s="8">
+      <c r="AV126" s="18">
         <v>49</v>
       </c>
-      <c r="AW126" s="8">
+      <c r="AW126" s="18">
         <v>57</v>
       </c>
     </row>
@@ -5896,76 +5914,76 @@
       <c r="M127" s="4">
         <v>58</v>
       </c>
-      <c r="O127" s="6">
+      <c r="O127" s="11">
         <v>2</v>
       </c>
-      <c r="P127" s="6">
+      <c r="P127" s="11">
         <v>10</v>
       </c>
-      <c r="R127" s="6">
+      <c r="R127" s="11">
         <v>18</v>
       </c>
-      <c r="S127" s="6">
+      <c r="S127" s="11">
         <v>26</v>
       </c>
-      <c r="U127" s="6">
+      <c r="U127" s="11">
         <v>34</v>
       </c>
-      <c r="V127" s="6">
+      <c r="V127" s="11">
         <v>42</v>
       </c>
-      <c r="X127" s="6">
+      <c r="X127" s="11">
         <v>50</v>
       </c>
-      <c r="Y127" s="6">
+      <c r="Y127" s="11">
         <v>58</v>
       </c>
-      <c r="AA127" s="7">
+      <c r="AA127" s="12">
         <v>2</v>
       </c>
-      <c r="AB127" s="7">
+      <c r="AB127" s="12">
         <v>10</v>
       </c>
-      <c r="AD127" s="7">
+      <c r="AD127" s="12">
         <v>18</v>
       </c>
-      <c r="AE127" s="7">
+      <c r="AE127" s="12">
         <v>26</v>
       </c>
-      <c r="AG127" s="7">
+      <c r="AG127" s="12">
         <v>34</v>
       </c>
-      <c r="AH127" s="7">
+      <c r="AH127" s="12">
         <v>42</v>
       </c>
-      <c r="AJ127" s="7">
+      <c r="AJ127" s="12">
         <v>50</v>
       </c>
-      <c r="AK127" s="7">
+      <c r="AK127" s="12">
         <v>58</v>
       </c>
-      <c r="AM127" s="8">
+      <c r="AM127" s="18">
         <v>2</v>
       </c>
-      <c r="AN127" s="8">
+      <c r="AN127" s="18">
         <v>10</v>
       </c>
-      <c r="AP127" s="8">
+      <c r="AP127" s="18">
         <v>18</v>
       </c>
-      <c r="AQ127" s="8">
+      <c r="AQ127" s="18">
         <v>26</v>
       </c>
-      <c r="AS127" s="8">
+      <c r="AS127" s="18">
         <v>34</v>
       </c>
-      <c r="AT127" s="8">
+      <c r="AT127" s="18">
         <v>42</v>
       </c>
-      <c r="AV127" s="8">
+      <c r="AV127" s="18">
         <v>50</v>
       </c>
-      <c r="AW127" s="8">
+      <c r="AW127" s="18">
         <v>58</v>
       </c>
     </row>
@@ -5994,76 +6012,76 @@
       <c r="M128" s="4">
         <v>59</v>
       </c>
-      <c r="O128" s="6">
+      <c r="O128" s="11">
         <v>3</v>
       </c>
-      <c r="P128" s="6">
+      <c r="P128" s="11">
         <v>11</v>
       </c>
-      <c r="R128" s="6">
+      <c r="R128" s="11">
         <v>19</v>
       </c>
-      <c r="S128" s="6">
+      <c r="S128" s="11">
         <v>27</v>
       </c>
-      <c r="U128" s="6">
+      <c r="U128" s="11">
         <v>35</v>
       </c>
-      <c r="V128" s="6">
+      <c r="V128" s="11">
         <v>43</v>
       </c>
-      <c r="X128" s="6">
+      <c r="X128" s="11">
         <v>51</v>
       </c>
-      <c r="Y128" s="6">
+      <c r="Y128" s="11">
         <v>59</v>
       </c>
-      <c r="AA128" s="7">
+      <c r="AA128" s="12">
         <v>3</v>
       </c>
-      <c r="AB128" s="7">
+      <c r="AB128" s="12">
         <v>11</v>
       </c>
-      <c r="AD128" s="7">
+      <c r="AD128" s="12">
         <v>19</v>
       </c>
-      <c r="AE128" s="7">
+      <c r="AE128" s="12">
         <v>27</v>
       </c>
-      <c r="AG128" s="7">
+      <c r="AG128" s="12">
         <v>35</v>
       </c>
-      <c r="AH128" s="7">
+      <c r="AH128" s="12">
         <v>43</v>
       </c>
-      <c r="AJ128" s="7">
+      <c r="AJ128" s="12">
         <v>51</v>
       </c>
-      <c r="AK128" s="7">
+      <c r="AK128" s="12">
         <v>59</v>
       </c>
-      <c r="AM128" s="8">
+      <c r="AM128" s="18">
         <v>3</v>
       </c>
-      <c r="AN128" s="8">
+      <c r="AN128" s="18">
         <v>11</v>
       </c>
-      <c r="AP128" s="8">
+      <c r="AP128" s="18">
         <v>19</v>
       </c>
-      <c r="AQ128" s="8">
+      <c r="AQ128" s="18">
         <v>27</v>
       </c>
-      <c r="AS128" s="8">
+      <c r="AS128" s="18">
         <v>35</v>
       </c>
-      <c r="AT128" s="8">
+      <c r="AT128" s="18">
         <v>43</v>
       </c>
-      <c r="AV128" s="8">
+      <c r="AV128" s="18">
         <v>51</v>
       </c>
-      <c r="AW128" s="8">
+      <c r="AW128" s="18">
         <v>59</v>
       </c>
     </row>
@@ -6092,76 +6110,76 @@
       <c r="M129" s="4">
         <v>60</v>
       </c>
-      <c r="O129" s="6">
+      <c r="O129" s="11">
         <v>4</v>
       </c>
-      <c r="P129" s="6">
+      <c r="P129" s="11">
         <v>12</v>
       </c>
-      <c r="R129" s="6">
+      <c r="R129" s="11">
         <v>20</v>
       </c>
-      <c r="S129" s="6">
+      <c r="S129" s="11">
         <v>28</v>
       </c>
-      <c r="U129" s="6">
+      <c r="U129" s="11">
         <v>36</v>
       </c>
-      <c r="V129" s="6">
+      <c r="V129" s="11">
         <v>44</v>
       </c>
-      <c r="X129" s="6">
+      <c r="X129" s="11">
         <v>52</v>
       </c>
-      <c r="Y129" s="6">
+      <c r="Y129" s="11">
         <v>60</v>
       </c>
-      <c r="AA129" s="7">
+      <c r="AA129" s="12">
         <v>4</v>
       </c>
-      <c r="AB129" s="7">
+      <c r="AB129" s="12">
         <v>12</v>
       </c>
-      <c r="AD129" s="7">
+      <c r="AD129" s="12">
         <v>20</v>
       </c>
-      <c r="AE129" s="7">
+      <c r="AE129" s="12">
         <v>28</v>
       </c>
-      <c r="AG129" s="7">
+      <c r="AG129" s="12">
         <v>36</v>
       </c>
-      <c r="AH129" s="7">
+      <c r="AH129" s="12">
         <v>44</v>
       </c>
-      <c r="AJ129" s="7">
+      <c r="AJ129" s="12">
         <v>52</v>
       </c>
-      <c r="AK129" s="7">
+      <c r="AK129" s="12">
         <v>60</v>
       </c>
-      <c r="AM129" s="8">
+      <c r="AM129" s="18">
         <v>4</v>
       </c>
-      <c r="AN129" s="8">
+      <c r="AN129" s="18">
         <v>12</v>
       </c>
-      <c r="AP129" s="8">
+      <c r="AP129" s="18">
         <v>20</v>
       </c>
-      <c r="AQ129" s="8">
+      <c r="AQ129" s="18">
         <v>28</v>
       </c>
-      <c r="AS129" s="8">
+      <c r="AS129" s="18">
         <v>36</v>
       </c>
-      <c r="AT129" s="8">
+      <c r="AT129" s="18">
         <v>44</v>
       </c>
-      <c r="AV129" s="8">
+      <c r="AV129" s="18">
         <v>52</v>
       </c>
-      <c r="AW129" s="8">
+      <c r="AW129" s="18">
         <v>60</v>
       </c>
     </row>
@@ -6190,76 +6208,76 @@
       <c r="M130" s="4">
         <v>61</v>
       </c>
-      <c r="O130" s="6">
+      <c r="O130" s="11">
         <v>5</v>
       </c>
-      <c r="P130" s="6">
+      <c r="P130" s="11">
         <v>13</v>
       </c>
-      <c r="R130" s="6">
+      <c r="R130" s="11">
         <v>21</v>
       </c>
-      <c r="S130" s="6">
+      <c r="S130" s="11">
         <v>29</v>
       </c>
-      <c r="U130" s="6">
+      <c r="U130" s="11">
         <v>37</v>
       </c>
-      <c r="V130" s="6">
+      <c r="V130" s="11">
         <v>45</v>
       </c>
-      <c r="X130" s="6">
+      <c r="X130" s="11">
         <v>53</v>
       </c>
-      <c r="Y130" s="6">
+      <c r="Y130" s="11">
         <v>61</v>
       </c>
-      <c r="AA130" s="7">
+      <c r="AA130" s="12">
         <v>5</v>
       </c>
-      <c r="AB130" s="7">
+      <c r="AB130" s="12">
         <v>13</v>
       </c>
-      <c r="AD130" s="7">
+      <c r="AD130" s="12">
         <v>21</v>
       </c>
-      <c r="AE130" s="7">
+      <c r="AE130" s="12">
         <v>29</v>
       </c>
-      <c r="AG130" s="7">
+      <c r="AG130" s="12">
         <v>37</v>
       </c>
-      <c r="AH130" s="7">
+      <c r="AH130" s="12">
         <v>45</v>
       </c>
-      <c r="AJ130" s="7">
+      <c r="AJ130" s="12">
         <v>53</v>
       </c>
-      <c r="AK130" s="7">
+      <c r="AK130" s="12">
         <v>61</v>
       </c>
-      <c r="AM130" s="8">
+      <c r="AM130" s="18">
         <v>5</v>
       </c>
-      <c r="AN130" s="8">
+      <c r="AN130" s="18">
         <v>13</v>
       </c>
-      <c r="AP130" s="8">
+      <c r="AP130" s="18">
         <v>21</v>
       </c>
-      <c r="AQ130" s="8">
+      <c r="AQ130" s="18">
         <v>29</v>
       </c>
-      <c r="AS130" s="8">
+      <c r="AS130" s="18">
         <v>37</v>
       </c>
-      <c r="AT130" s="8">
+      <c r="AT130" s="18">
         <v>45</v>
       </c>
-      <c r="AV130" s="8">
+      <c r="AV130" s="18">
         <v>53</v>
       </c>
-      <c r="AW130" s="8">
+      <c r="AW130" s="18">
         <v>61</v>
       </c>
     </row>
@@ -6288,76 +6306,76 @@
       <c r="M131" s="4">
         <v>62</v>
       </c>
-      <c r="O131" s="6">
+      <c r="O131" s="11">
         <v>6</v>
       </c>
-      <c r="P131" s="6">
+      <c r="P131" s="11">
         <v>14</v>
       </c>
-      <c r="R131" s="6">
+      <c r="R131" s="11">
         <v>22</v>
       </c>
-      <c r="S131" s="6">
+      <c r="S131" s="11">
         <v>30</v>
       </c>
-      <c r="U131" s="6">
+      <c r="U131" s="11">
         <v>38</v>
       </c>
-      <c r="V131" s="6">
+      <c r="V131" s="11">
         <v>46</v>
       </c>
-      <c r="X131" s="6">
+      <c r="X131" s="11">
         <v>54</v>
       </c>
-      <c r="Y131" s="6">
+      <c r="Y131" s="11">
         <v>62</v>
       </c>
-      <c r="AA131" s="7">
+      <c r="AA131" s="12">
         <v>6</v>
       </c>
-      <c r="AB131" s="7">
+      <c r="AB131" s="12">
         <v>14</v>
       </c>
-      <c r="AD131" s="7">
+      <c r="AD131" s="12">
         <v>22</v>
       </c>
-      <c r="AE131" s="7">
+      <c r="AE131" s="12">
         <v>30</v>
       </c>
-      <c r="AG131" s="7">
+      <c r="AG131" s="12">
         <v>38</v>
       </c>
-      <c r="AH131" s="7">
+      <c r="AH131" s="12">
         <v>46</v>
       </c>
-      <c r="AJ131" s="7">
+      <c r="AJ131" s="12">
         <v>54</v>
       </c>
-      <c r="AK131" s="7">
+      <c r="AK131" s="12">
         <v>62</v>
       </c>
-      <c r="AM131" s="8">
+      <c r="AM131" s="18">
         <v>6</v>
       </c>
-      <c r="AN131" s="8">
+      <c r="AN131" s="18">
         <v>14</v>
       </c>
-      <c r="AP131" s="8">
+      <c r="AP131" s="18">
         <v>22</v>
       </c>
-      <c r="AQ131" s="8">
+      <c r="AQ131" s="18">
         <v>30</v>
       </c>
-      <c r="AS131" s="8">
+      <c r="AS131" s="18">
         <v>38</v>
       </c>
-      <c r="AT131" s="8">
+      <c r="AT131" s="18">
         <v>46</v>
       </c>
-      <c r="AV131" s="8">
+      <c r="AV131" s="18">
         <v>54</v>
       </c>
-      <c r="AW131" s="8">
+      <c r="AW131" s="18">
         <v>62</v>
       </c>
     </row>
@@ -6386,1020 +6404,1016 @@
       <c r="M132" s="4">
         <v>63</v>
       </c>
-      <c r="O132" s="6">
+      <c r="O132" s="11">
         <v>7</v>
       </c>
-      <c r="P132" s="6">
+      <c r="P132" s="11">
         <v>15</v>
       </c>
-      <c r="R132" s="6">
+      <c r="R132" s="11">
         <v>23</v>
       </c>
-      <c r="S132" s="6">
+      <c r="S132" s="11">
         <v>31</v>
       </c>
-      <c r="U132" s="6">
+      <c r="U132" s="11">
         <v>39</v>
       </c>
-      <c r="V132" s="6">
+      <c r="V132" s="11">
         <v>47</v>
       </c>
-      <c r="X132" s="6">
+      <c r="X132" s="11">
         <v>55</v>
       </c>
-      <c r="Y132" s="6">
+      <c r="Y132" s="11">
         <v>63</v>
       </c>
-      <c r="AA132" s="7">
+      <c r="AA132" s="12">
         <v>7</v>
       </c>
-      <c r="AB132" s="7">
+      <c r="AB132" s="12">
         <v>15</v>
       </c>
-      <c r="AD132" s="7">
+      <c r="AD132" s="12">
         <v>23</v>
       </c>
-      <c r="AE132" s="7">
+      <c r="AE132" s="12">
         <v>31</v>
       </c>
-      <c r="AG132" s="7">
+      <c r="AG132" s="12">
         <v>39</v>
       </c>
-      <c r="AH132" s="7">
+      <c r="AH132" s="12">
         <v>47</v>
       </c>
-      <c r="AJ132" s="7">
+      <c r="AJ132" s="12">
         <v>55</v>
       </c>
-      <c r="AK132" s="7">
+      <c r="AK132" s="12">
         <v>63</v>
       </c>
-      <c r="AM132" s="8">
+      <c r="AM132" s="18">
         <v>7</v>
       </c>
-      <c r="AN132" s="8">
+      <c r="AN132" s="18">
         <v>15</v>
       </c>
-      <c r="AP132" s="8">
+      <c r="AP132" s="18">
         <v>23</v>
       </c>
-      <c r="AQ132" s="8">
+      <c r="AQ132" s="18">
         <v>31</v>
       </c>
-      <c r="AS132" s="8">
+      <c r="AS132" s="18">
         <v>39</v>
       </c>
-      <c r="AT132" s="8">
+      <c r="AT132" s="18">
         <v>47</v>
       </c>
-      <c r="AV132" s="8">
+      <c r="AV132" s="18">
         <v>55</v>
       </c>
-      <c r="AW132" s="8">
+      <c r="AW132" s="18">
         <v>63</v>
       </c>
     </row>
     <row r="135" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="F135" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="I135" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J135" s="6"/>
+      <c r="L135" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="M135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="R135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V135" s="2"/>
+      <c r="X135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA135" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB135" s="13"/>
+      <c r="AD135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE135" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG135" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH135" s="13"/>
+      <c r="AJ135" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM135" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN135" s="17"/>
+      <c r="AP135" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ135" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS135" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT135" s="17"/>
+      <c r="AV135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW135" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="AA136" s="13"/>
+      <c r="AB136" s="13"/>
+      <c r="AD136" s="13"/>
+      <c r="AE136" s="13"/>
+      <c r="AG136" s="13"/>
+      <c r="AH136" s="13"/>
+      <c r="AJ136" s="13"/>
+      <c r="AK136" s="13"/>
+      <c r="AM136" s="17"/>
+      <c r="AN136" s="17"/>
+      <c r="AP136" s="17"/>
+      <c r="AQ136" s="17"/>
+      <c r="AS136" s="17"/>
+      <c r="AT136" s="17"/>
+      <c r="AV136" s="17"/>
+      <c r="AW136" s="17"/>
+    </row>
+    <row r="137" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C137" s="6">
+        <v>48</v>
+      </c>
+      <c r="D137" s="6">
+        <v>56</v>
+      </c>
+      <c r="F137" s="6">
+        <v>32</v>
+      </c>
+      <c r="G137" s="6">
+        <v>40</v>
+      </c>
+      <c r="I137" s="6">
+        <v>16</v>
+      </c>
+      <c r="J137" s="6">
+        <v>24</v>
+      </c>
+      <c r="L137" s="6">
+        <v>0</v>
+      </c>
+      <c r="M137" s="6">
         <v>8</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="O137" s="2">
+        <v>48</v>
+      </c>
+      <c r="P137" s="2">
+        <v>56</v>
+      </c>
+      <c r="R137" s="2">
+        <v>32</v>
+      </c>
+      <c r="S137" s="2">
+        <v>40</v>
+      </c>
+      <c r="U137" s="2">
+        <v>16</v>
+      </c>
+      <c r="V137" s="2">
+        <v>24</v>
+      </c>
+      <c r="X137" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA137" s="13">
+        <v>48</v>
+      </c>
+      <c r="AB137" s="13">
+        <v>56</v>
+      </c>
+      <c r="AD137" s="13">
+        <v>32</v>
+      </c>
+      <c r="AE137" s="13">
+        <v>40</v>
+      </c>
+      <c r="AG137" s="13">
+        <v>16</v>
+      </c>
+      <c r="AH137" s="13">
+        <v>24</v>
+      </c>
+      <c r="AJ137" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM137" s="17">
+        <v>48</v>
+      </c>
+      <c r="AN137" s="17">
+        <v>56</v>
+      </c>
+      <c r="AP137" s="17">
+        <v>32</v>
+      </c>
+      <c r="AQ137" s="17">
+        <v>40</v>
+      </c>
+      <c r="AS137" s="17">
+        <v>16</v>
+      </c>
+      <c r="AT137" s="17">
+        <v>24</v>
+      </c>
+      <c r="AV137" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW137" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C138" s="6">
+        <v>49</v>
+      </c>
+      <c r="D138" s="6">
+        <v>57</v>
+      </c>
+      <c r="F138" s="6">
+        <v>33</v>
+      </c>
+      <c r="G138" s="6">
+        <v>41</v>
+      </c>
+      <c r="I138" s="6">
+        <v>17</v>
+      </c>
+      <c r="J138" s="6">
+        <v>25</v>
+      </c>
+      <c r="L138" s="6">
         <v>1</v>
       </c>
-      <c r="G135" s="9"/>
-      <c r="I135" s="9" t="s">
+      <c r="M138" s="6">
+        <v>9</v>
+      </c>
+      <c r="O138" s="2">
+        <v>49</v>
+      </c>
+      <c r="P138" s="2">
+        <v>57</v>
+      </c>
+      <c r="R138" s="2">
+        <v>33</v>
+      </c>
+      <c r="S138" s="2">
+        <v>41</v>
+      </c>
+      <c r="U138" s="2">
+        <v>17</v>
+      </c>
+      <c r="V138" s="2">
+        <v>25</v>
+      </c>
+      <c r="X138" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y138" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA138" s="13">
+        <v>49</v>
+      </c>
+      <c r="AB138" s="13">
+        <v>57</v>
+      </c>
+      <c r="AD138" s="13">
+        <v>33</v>
+      </c>
+      <c r="AE138" s="13">
+        <v>41</v>
+      </c>
+      <c r="AG138" s="13">
+        <v>17</v>
+      </c>
+      <c r="AH138" s="13">
+        <v>25</v>
+      </c>
+      <c r="AJ138" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK138" s="13">
+        <v>9</v>
+      </c>
+      <c r="AM138" s="17">
+        <v>49</v>
+      </c>
+      <c r="AN138" s="17">
+        <v>57</v>
+      </c>
+      <c r="AP138" s="17">
+        <v>33</v>
+      </c>
+      <c r="AQ138" s="17">
+        <v>41</v>
+      </c>
+      <c r="AS138" s="17">
+        <v>17</v>
+      </c>
+      <c r="AT138" s="17">
+        <v>25</v>
+      </c>
+      <c r="AV138" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW138" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C139" s="6">
+        <v>50</v>
+      </c>
+      <c r="D139" s="6">
+        <v>58</v>
+      </c>
+      <c r="F139" s="6">
+        <v>34</v>
+      </c>
+      <c r="G139" s="6">
+        <v>42</v>
+      </c>
+      <c r="I139" s="6">
+        <v>18</v>
+      </c>
+      <c r="J139" s="6">
+        <v>26</v>
+      </c>
+      <c r="L139" s="6">
+        <v>2</v>
+      </c>
+      <c r="M139" s="6">
+        <v>10</v>
+      </c>
+      <c r="O139" s="2">
+        <v>50</v>
+      </c>
+      <c r="P139" s="2">
+        <v>58</v>
+      </c>
+      <c r="R139" s="2">
+        <v>34</v>
+      </c>
+      <c r="S139" s="2">
+        <v>42</v>
+      </c>
+      <c r="U139" s="2">
+        <v>18</v>
+      </c>
+      <c r="V139" s="2">
+        <v>26</v>
+      </c>
+      <c r="X139" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y139" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA139" s="13">
+        <v>50</v>
+      </c>
+      <c r="AB139" s="13">
+        <v>58</v>
+      </c>
+      <c r="AD139" s="13">
+        <v>34</v>
+      </c>
+      <c r="AE139" s="13">
+        <v>42</v>
+      </c>
+      <c r="AG139" s="13">
+        <v>18</v>
+      </c>
+      <c r="AH139" s="13">
+        <v>26</v>
+      </c>
+      <c r="AJ139" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK139" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM139" s="17">
+        <v>50</v>
+      </c>
+      <c r="AN139" s="17">
+        <v>58</v>
+      </c>
+      <c r="AP139" s="17">
+        <v>34</v>
+      </c>
+      <c r="AQ139" s="17">
+        <v>42</v>
+      </c>
+      <c r="AS139" s="17">
+        <v>18</v>
+      </c>
+      <c r="AT139" s="17">
+        <v>26</v>
+      </c>
+      <c r="AV139" s="17">
+        <v>2</v>
+      </c>
+      <c r="AW139" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C140" s="6">
+        <v>51</v>
+      </c>
+      <c r="D140" s="6">
+        <v>59</v>
+      </c>
+      <c r="F140" s="6">
+        <v>35</v>
+      </c>
+      <c r="G140" s="6">
+        <v>43</v>
+      </c>
+      <c r="I140" s="6">
+        <v>19</v>
+      </c>
+      <c r="J140" s="6">
+        <v>27</v>
+      </c>
+      <c r="L140" s="6">
+        <v>3</v>
+      </c>
+      <c r="M140" s="6">
+        <v>11</v>
+      </c>
+      <c r="O140" s="2">
+        <v>51</v>
+      </c>
+      <c r="P140" s="2">
+        <v>59</v>
+      </c>
+      <c r="R140" s="2">
+        <v>35</v>
+      </c>
+      <c r="S140" s="2">
+        <v>43</v>
+      </c>
+      <c r="U140" s="2">
+        <v>19</v>
+      </c>
+      <c r="V140" s="2">
+        <v>27</v>
+      </c>
+      <c r="X140" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y140" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA140" s="13">
+        <v>51</v>
+      </c>
+      <c r="AB140" s="13">
+        <v>59</v>
+      </c>
+      <c r="AD140" s="13">
+        <v>35</v>
+      </c>
+      <c r="AE140" s="13">
+        <v>43</v>
+      </c>
+      <c r="AG140" s="13">
+        <v>19</v>
+      </c>
+      <c r="AH140" s="13">
+        <v>27</v>
+      </c>
+      <c r="AJ140" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK140" s="13">
+        <v>11</v>
+      </c>
+      <c r="AM140" s="17">
+        <v>51</v>
+      </c>
+      <c r="AN140" s="17">
+        <v>59</v>
+      </c>
+      <c r="AP140" s="17">
+        <v>35</v>
+      </c>
+      <c r="AQ140" s="17">
+        <v>43</v>
+      </c>
+      <c r="AS140" s="17">
+        <v>19</v>
+      </c>
+      <c r="AT140" s="17">
+        <v>27</v>
+      </c>
+      <c r="AV140" s="17">
+        <v>3</v>
+      </c>
+      <c r="AW140" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C141" s="6">
+        <v>52</v>
+      </c>
+      <c r="D141" s="6">
+        <v>60</v>
+      </c>
+      <c r="F141" s="6">
+        <v>36</v>
+      </c>
+      <c r="G141" s="6">
+        <v>44</v>
+      </c>
+      <c r="I141" s="6">
         <v>20</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L135" s="9" t="s">
+      <c r="J141" s="6">
+        <v>28</v>
+      </c>
+      <c r="L141" s="6">
+        <v>4</v>
+      </c>
+      <c r="M141" s="6">
+        <v>12</v>
+      </c>
+      <c r="O141" s="2">
+        <v>52</v>
+      </c>
+      <c r="P141" s="2">
+        <v>60</v>
+      </c>
+      <c r="R141" s="2">
+        <v>36</v>
+      </c>
+      <c r="S141" s="2">
+        <v>44</v>
+      </c>
+      <c r="U141" s="2">
+        <v>20</v>
+      </c>
+      <c r="V141" s="2">
+        <v>28</v>
+      </c>
+      <c r="X141" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y141" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA141" s="13">
+        <v>52</v>
+      </c>
+      <c r="AB141" s="13">
+        <v>60</v>
+      </c>
+      <c r="AD141" s="13">
+        <v>36</v>
+      </c>
+      <c r="AE141" s="13">
+        <v>44</v>
+      </c>
+      <c r="AG141" s="13">
+        <v>20</v>
+      </c>
+      <c r="AH141" s="13">
+        <v>28</v>
+      </c>
+      <c r="AJ141" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK141" s="13">
+        <v>12</v>
+      </c>
+      <c r="AM141" s="17">
+        <v>52</v>
+      </c>
+      <c r="AN141" s="17">
+        <v>60</v>
+      </c>
+      <c r="AP141" s="17">
+        <v>36</v>
+      </c>
+      <c r="AQ141" s="17">
+        <v>44</v>
+      </c>
+      <c r="AS141" s="17">
+        <v>20</v>
+      </c>
+      <c r="AT141" s="17">
+        <v>28</v>
+      </c>
+      <c r="AV141" s="17">
+        <v>4</v>
+      </c>
+      <c r="AW141" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C142" s="6">
+        <v>53</v>
+      </c>
+      <c r="D142" s="6">
+        <v>61</v>
+      </c>
+      <c r="F142" s="6">
+        <v>37</v>
+      </c>
+      <c r="G142" s="6">
+        <v>45</v>
+      </c>
+      <c r="I142" s="6">
         <v>21</v>
       </c>
-      <c r="M135" s="9"/>
-      <c r="O135" s="10" t="s">
+      <c r="J142" s="6">
+        <v>29</v>
+      </c>
+      <c r="L142" s="6">
+        <v>5</v>
+      </c>
+      <c r="M142" s="6">
+        <v>13</v>
+      </c>
+      <c r="O142" s="2">
+        <v>53</v>
+      </c>
+      <c r="P142" s="2">
+        <v>61</v>
+      </c>
+      <c r="R142" s="2">
+        <v>37</v>
+      </c>
+      <c r="S142" s="2">
+        <v>45</v>
+      </c>
+      <c r="U142" s="2">
+        <v>21</v>
+      </c>
+      <c r="V142" s="2">
+        <v>29</v>
+      </c>
+      <c r="X142" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y142" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA142" s="13">
+        <v>53</v>
+      </c>
+      <c r="AB142" s="13">
+        <v>61</v>
+      </c>
+      <c r="AD142" s="13">
+        <v>37</v>
+      </c>
+      <c r="AE142" s="13">
+        <v>45</v>
+      </c>
+      <c r="AG142" s="13">
+        <v>21</v>
+      </c>
+      <c r="AH142" s="13">
+        <v>29</v>
+      </c>
+      <c r="AJ142" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK142" s="13">
+        <v>13</v>
+      </c>
+      <c r="AM142" s="17">
+        <v>53</v>
+      </c>
+      <c r="AN142" s="17">
+        <v>61</v>
+      </c>
+      <c r="AP142" s="17">
+        <v>37</v>
+      </c>
+      <c r="AQ142" s="17">
+        <v>45</v>
+      </c>
+      <c r="AS142" s="17">
+        <v>21</v>
+      </c>
+      <c r="AT142" s="17">
+        <v>29</v>
+      </c>
+      <c r="AV142" s="17">
+        <v>5</v>
+      </c>
+      <c r="AW142" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C143" s="6">
+        <v>54</v>
+      </c>
+      <c r="D143" s="6">
+        <v>62</v>
+      </c>
+      <c r="F143" s="6">
+        <v>38</v>
+      </c>
+      <c r="G143" s="6">
+        <v>46</v>
+      </c>
+      <c r="I143" s="6">
+        <v>22</v>
+      </c>
+      <c r="J143" s="6">
+        <v>30</v>
+      </c>
+      <c r="L143" s="6">
+        <v>6</v>
+      </c>
+      <c r="M143" s="6">
+        <v>14</v>
+      </c>
+      <c r="O143" s="2">
+        <v>54</v>
+      </c>
+      <c r="P143" s="2">
+        <v>62</v>
+      </c>
+      <c r="R143" s="2">
+        <v>38</v>
+      </c>
+      <c r="S143" s="2">
+        <v>46</v>
+      </c>
+      <c r="U143" s="2">
+        <v>22</v>
+      </c>
+      <c r="V143" s="2">
+        <v>30</v>
+      </c>
+      <c r="X143" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y143" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA143" s="13">
+        <v>54</v>
+      </c>
+      <c r="AB143" s="13">
+        <v>62</v>
+      </c>
+      <c r="AD143" s="13">
+        <v>38</v>
+      </c>
+      <c r="AE143" s="13">
+        <v>46</v>
+      </c>
+      <c r="AG143" s="13">
+        <v>22</v>
+      </c>
+      <c r="AH143" s="13">
+        <v>30</v>
+      </c>
+      <c r="AJ143" s="13">
+        <v>6</v>
+      </c>
+      <c r="AK143" s="13">
+        <v>14</v>
+      </c>
+      <c r="AM143" s="17">
+        <v>54</v>
+      </c>
+      <c r="AN143" s="17">
+        <v>62</v>
+      </c>
+      <c r="AP143" s="17">
+        <v>38</v>
+      </c>
+      <c r="AQ143" s="17">
+        <v>46</v>
+      </c>
+      <c r="AS143" s="17">
+        <v>22</v>
+      </c>
+      <c r="AT143" s="17">
+        <v>30</v>
+      </c>
+      <c r="AV143" s="17">
+        <v>6</v>
+      </c>
+      <c r="AW143" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C144" s="6">
+        <v>55</v>
+      </c>
+      <c r="D144" s="6">
+        <v>63</v>
+      </c>
+      <c r="F144" s="6">
+        <v>39</v>
+      </c>
+      <c r="G144" s="6">
+        <v>47</v>
+      </c>
+      <c r="I144" s="6">
+        <v>23</v>
+      </c>
+      <c r="J144" s="6">
+        <v>31</v>
+      </c>
+      <c r="L144" s="6">
+        <v>7</v>
+      </c>
+      <c r="M144" s="6">
+        <v>15</v>
+      </c>
+      <c r="O144" s="2">
+        <v>55</v>
+      </c>
+      <c r="P144" s="2">
+        <v>63</v>
+      </c>
+      <c r="R144" s="2">
+        <v>39</v>
+      </c>
+      <c r="S144" s="2">
+        <v>47</v>
+      </c>
+      <c r="U144" s="2">
+        <v>23</v>
+      </c>
+      <c r="V144" s="2">
+        <v>31</v>
+      </c>
+      <c r="X144" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y144" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA144" s="13">
+        <v>55</v>
+      </c>
+      <c r="AB144" s="13">
+        <v>63</v>
+      </c>
+      <c r="AD144" s="13">
+        <v>39</v>
+      </c>
+      <c r="AE144" s="13">
+        <v>47</v>
+      </c>
+      <c r="AG144" s="13">
+        <v>23</v>
+      </c>
+      <c r="AH144" s="13">
+        <v>31</v>
+      </c>
+      <c r="AJ144" s="13">
+        <v>7</v>
+      </c>
+      <c r="AK144" s="13">
+        <v>15</v>
+      </c>
+      <c r="AM144" s="17">
+        <v>55</v>
+      </c>
+      <c r="AN144" s="17">
+        <v>63</v>
+      </c>
+      <c r="AP144" s="17">
+        <v>39</v>
+      </c>
+      <c r="AQ144" s="17">
+        <v>47</v>
+      </c>
+      <c r="AS144" s="17">
+        <v>23</v>
+      </c>
+      <c r="AT144" s="17">
+        <v>31</v>
+      </c>
+      <c r="AV144" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW144" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C147" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P135" s="10" t="s">
+      <c r="D147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7"/>
+      <c r="I147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="L147" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M147" s="7"/>
+      <c r="O147" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P147" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R135" s="10" t="s">
+      <c r="R147" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="S135" s="10"/>
-      <c r="U135" s="10" t="s">
+      <c r="S147" s="10"/>
+      <c r="U147" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V135" s="10" t="s">
+      <c r="V147" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X135" s="10" t="s">
+      <c r="X147" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y135" s="10"/>
-      <c r="AA135" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE135" s="2"/>
-      <c r="AG135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ135" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK135" s="2"/>
-      <c r="AM135" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN135" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP135" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ135" s="11"/>
-      <c r="AS135" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT135" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV135" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW135" s="11"/>
-    </row>
-    <row r="136" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
-      <c r="R136" s="10"/>
-      <c r="S136" s="10"/>
-      <c r="U136" s="10"/>
-      <c r="V136" s="10"/>
-      <c r="X136" s="10"/>
-      <c r="Y136" s="10"/>
-      <c r="AA136" s="2"/>
-      <c r="AB136" s="2"/>
-      <c r="AD136" s="2"/>
-      <c r="AE136" s="2"/>
-      <c r="AG136" s="2"/>
-      <c r="AH136" s="2"/>
-      <c r="AJ136" s="2"/>
-      <c r="AK136" s="2"/>
-      <c r="AM136" s="11"/>
-      <c r="AN136" s="11"/>
-      <c r="AP136" s="11"/>
-      <c r="AQ136" s="11"/>
-      <c r="AS136" s="11"/>
-      <c r="AT136" s="11"/>
-      <c r="AV136" s="11"/>
-      <c r="AW136" s="11"/>
-    </row>
-    <row r="137" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C137" s="9">
-        <v>0</v>
-      </c>
-      <c r="D137" s="9">
-        <v>8</v>
-      </c>
-      <c r="F137" s="9">
-        <v>16</v>
-      </c>
-      <c r="G137" s="9">
-        <v>24</v>
-      </c>
-      <c r="I137" s="9">
-        <v>32</v>
-      </c>
-      <c r="J137" s="9">
-        <v>40</v>
-      </c>
-      <c r="L137" s="9">
-        <v>48</v>
-      </c>
-      <c r="M137" s="9">
-        <v>56</v>
-      </c>
-      <c r="O137" s="10">
-        <v>0</v>
-      </c>
-      <c r="P137" s="10">
-        <v>8</v>
-      </c>
-      <c r="R137" s="10">
-        <v>16</v>
-      </c>
-      <c r="S137" s="10">
-        <v>24</v>
-      </c>
-      <c r="U137" s="10">
-        <v>32</v>
-      </c>
-      <c r="V137" s="10">
-        <v>40</v>
-      </c>
-      <c r="X137" s="10">
-        <v>48</v>
-      </c>
-      <c r="Y137" s="10">
-        <v>56</v>
-      </c>
-      <c r="AA137" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB137" s="2">
-        <v>8</v>
-      </c>
-      <c r="AD137" s="2">
-        <v>16</v>
-      </c>
-      <c r="AE137" s="2">
-        <v>24</v>
-      </c>
-      <c r="AG137" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH137" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ137" s="2">
-        <v>48</v>
-      </c>
-      <c r="AK137" s="2">
-        <v>56</v>
-      </c>
-      <c r="AM137" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN137" s="11">
-        <v>8</v>
-      </c>
-      <c r="AP137" s="11">
-        <v>16</v>
-      </c>
-      <c r="AQ137" s="11">
-        <v>24</v>
-      </c>
-      <c r="AS137" s="11">
-        <v>32</v>
-      </c>
-      <c r="AT137" s="11">
-        <v>40</v>
-      </c>
-      <c r="AV137" s="11">
-        <v>48</v>
-      </c>
-      <c r="AW137" s="11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C138" s="9">
-        <v>1</v>
-      </c>
-      <c r="D138" s="9">
-        <v>9</v>
-      </c>
-      <c r="F138" s="9">
-        <v>17</v>
-      </c>
-      <c r="G138" s="9">
-        <v>25</v>
-      </c>
-      <c r="I138" s="9">
-        <v>33</v>
-      </c>
-      <c r="J138" s="9">
-        <v>41</v>
-      </c>
-      <c r="L138" s="9">
-        <v>49</v>
-      </c>
-      <c r="M138" s="9">
-        <v>57</v>
-      </c>
-      <c r="O138" s="10">
-        <v>1</v>
-      </c>
-      <c r="P138" s="10">
-        <v>9</v>
-      </c>
-      <c r="R138" s="10">
-        <v>17</v>
-      </c>
-      <c r="S138" s="10">
-        <v>25</v>
-      </c>
-      <c r="U138" s="10">
-        <v>33</v>
-      </c>
-      <c r="V138" s="10">
-        <v>41</v>
-      </c>
-      <c r="X138" s="10">
-        <v>49</v>
-      </c>
-      <c r="Y138" s="10">
-        <v>57</v>
-      </c>
-      <c r="AA138" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB138" s="2">
-        <v>9</v>
-      </c>
-      <c r="AD138" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE138" s="2">
-        <v>25</v>
-      </c>
-      <c r="AG138" s="2">
-        <v>33</v>
-      </c>
-      <c r="AH138" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ138" s="2">
-        <v>49</v>
-      </c>
-      <c r="AK138" s="2">
-        <v>57</v>
-      </c>
-      <c r="AM138" s="11">
-        <v>1</v>
-      </c>
-      <c r="AN138" s="11">
-        <v>9</v>
-      </c>
-      <c r="AP138" s="11">
-        <v>17</v>
-      </c>
-      <c r="AQ138" s="11">
-        <v>25</v>
-      </c>
-      <c r="AS138" s="11">
-        <v>33</v>
-      </c>
-      <c r="AT138" s="11">
-        <v>41</v>
-      </c>
-      <c r="AV138" s="11">
-        <v>49</v>
-      </c>
-      <c r="AW138" s="11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C139" s="9">
-        <v>2</v>
-      </c>
-      <c r="D139" s="9">
-        <v>10</v>
-      </c>
-      <c r="F139" s="9">
-        <v>18</v>
-      </c>
-      <c r="G139" s="9">
-        <v>26</v>
-      </c>
-      <c r="I139" s="9">
-        <v>34</v>
-      </c>
-      <c r="J139" s="9">
-        <v>42</v>
-      </c>
-      <c r="L139" s="9">
-        <v>50</v>
-      </c>
-      <c r="M139" s="9">
-        <v>58</v>
-      </c>
-      <c r="O139" s="10">
-        <v>2</v>
-      </c>
-      <c r="P139" s="10">
-        <v>10</v>
-      </c>
-      <c r="R139" s="10">
-        <v>18</v>
-      </c>
-      <c r="S139" s="10">
-        <v>26</v>
-      </c>
-      <c r="U139" s="10">
-        <v>34</v>
-      </c>
-      <c r="V139" s="10">
-        <v>42</v>
-      </c>
-      <c r="X139" s="10">
-        <v>50</v>
-      </c>
-      <c r="Y139" s="10">
-        <v>58</v>
-      </c>
-      <c r="AA139" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB139" s="2">
-        <v>10</v>
-      </c>
-      <c r="AD139" s="2">
-        <v>18</v>
-      </c>
-      <c r="AE139" s="2">
-        <v>26</v>
-      </c>
-      <c r="AG139" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH139" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ139" s="2">
-        <v>50</v>
-      </c>
-      <c r="AK139" s="2">
-        <v>58</v>
-      </c>
-      <c r="AM139" s="11">
-        <v>2</v>
-      </c>
-      <c r="AN139" s="11">
-        <v>10</v>
-      </c>
-      <c r="AP139" s="11">
-        <v>18</v>
-      </c>
-      <c r="AQ139" s="11">
-        <v>26</v>
-      </c>
-      <c r="AS139" s="11">
-        <v>34</v>
-      </c>
-      <c r="AT139" s="11">
-        <v>42</v>
-      </c>
-      <c r="AV139" s="11">
-        <v>50</v>
-      </c>
-      <c r="AW139" s="11">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C140" s="9">
-        <v>3</v>
-      </c>
-      <c r="D140" s="9">
-        <v>11</v>
-      </c>
-      <c r="F140" s="9">
-        <v>19</v>
-      </c>
-      <c r="G140" s="9">
-        <v>27</v>
-      </c>
-      <c r="I140" s="9">
-        <v>35</v>
-      </c>
-      <c r="J140" s="9">
-        <v>43</v>
-      </c>
-      <c r="L140" s="9">
-        <v>51</v>
-      </c>
-      <c r="M140" s="9">
-        <v>59</v>
-      </c>
-      <c r="O140" s="10">
-        <v>3</v>
-      </c>
-      <c r="P140" s="10">
-        <v>11</v>
-      </c>
-      <c r="R140" s="10">
-        <v>19</v>
-      </c>
-      <c r="S140" s="10">
-        <v>27</v>
-      </c>
-      <c r="U140" s="10">
-        <v>35</v>
-      </c>
-      <c r="V140" s="10">
-        <v>43</v>
-      </c>
-      <c r="X140" s="10">
-        <v>51</v>
-      </c>
-      <c r="Y140" s="10">
-        <v>59</v>
-      </c>
-      <c r="AA140" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB140" s="2">
-        <v>11</v>
-      </c>
-      <c r="AD140" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE140" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG140" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH140" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ140" s="2">
-        <v>51</v>
-      </c>
-      <c r="AK140" s="2">
-        <v>59</v>
-      </c>
-      <c r="AM140" s="11">
-        <v>3</v>
-      </c>
-      <c r="AN140" s="11">
-        <v>11</v>
-      </c>
-      <c r="AP140" s="11">
-        <v>19</v>
-      </c>
-      <c r="AQ140" s="11">
-        <v>27</v>
-      </c>
-      <c r="AS140" s="11">
-        <v>35</v>
-      </c>
-      <c r="AT140" s="11">
-        <v>43</v>
-      </c>
-      <c r="AV140" s="11">
-        <v>51</v>
-      </c>
-      <c r="AW140" s="11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C141" s="9">
-        <v>4</v>
-      </c>
-      <c r="D141" s="9">
-        <v>12</v>
-      </c>
-      <c r="F141" s="9">
-        <v>20</v>
-      </c>
-      <c r="G141" s="9">
-        <v>28</v>
-      </c>
-      <c r="I141" s="9">
-        <v>36</v>
-      </c>
-      <c r="J141" s="9">
-        <v>44</v>
-      </c>
-      <c r="L141" s="9">
-        <v>52</v>
-      </c>
-      <c r="M141" s="9">
-        <v>60</v>
-      </c>
-      <c r="O141" s="10">
-        <v>4</v>
-      </c>
-      <c r="P141" s="10">
-        <v>12</v>
-      </c>
-      <c r="R141" s="10">
-        <v>20</v>
-      </c>
-      <c r="S141" s="10">
-        <v>28</v>
-      </c>
-      <c r="U141" s="10">
-        <v>36</v>
-      </c>
-      <c r="V141" s="10">
-        <v>44</v>
-      </c>
-      <c r="X141" s="10">
-        <v>52</v>
-      </c>
-      <c r="Y141" s="10">
-        <v>60</v>
-      </c>
-      <c r="AA141" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB141" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD141" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE141" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG141" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH141" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ141" s="2">
-        <v>52</v>
-      </c>
-      <c r="AK141" s="2">
-        <v>60</v>
-      </c>
-      <c r="AM141" s="11">
-        <v>4</v>
-      </c>
-      <c r="AN141" s="11">
-        <v>12</v>
-      </c>
-      <c r="AP141" s="11">
-        <v>20</v>
-      </c>
-      <c r="AQ141" s="11">
-        <v>28</v>
-      </c>
-      <c r="AS141" s="11">
-        <v>36</v>
-      </c>
-      <c r="AT141" s="11">
-        <v>44</v>
-      </c>
-      <c r="AV141" s="11">
-        <v>52</v>
-      </c>
-      <c r="AW141" s="11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C142" s="9">
-        <v>5</v>
-      </c>
-      <c r="D142" s="9">
-        <v>13</v>
-      </c>
-      <c r="F142" s="9">
-        <v>21</v>
-      </c>
-      <c r="G142" s="9">
-        <v>29</v>
-      </c>
-      <c r="I142" s="9">
-        <v>37</v>
-      </c>
-      <c r="J142" s="9">
-        <v>45</v>
-      </c>
-      <c r="L142" s="9">
-        <v>53</v>
-      </c>
-      <c r="M142" s="9">
-        <v>61</v>
-      </c>
-      <c r="O142" s="10">
-        <v>5</v>
-      </c>
-      <c r="P142" s="10">
-        <v>13</v>
-      </c>
-      <c r="R142" s="10">
-        <v>21</v>
-      </c>
-      <c r="S142" s="10">
-        <v>29</v>
-      </c>
-      <c r="U142" s="10">
-        <v>37</v>
-      </c>
-      <c r="V142" s="10">
-        <v>45</v>
-      </c>
-      <c r="X142" s="10">
-        <v>53</v>
-      </c>
-      <c r="Y142" s="10">
-        <v>61</v>
-      </c>
-      <c r="AA142" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB142" s="2">
-        <v>13</v>
-      </c>
-      <c r="AD142" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE142" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG142" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH142" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ142" s="2">
-        <v>53</v>
-      </c>
-      <c r="AK142" s="2">
-        <v>61</v>
-      </c>
-      <c r="AM142" s="11">
-        <v>5</v>
-      </c>
-      <c r="AN142" s="11">
-        <v>13</v>
-      </c>
-      <c r="AP142" s="11">
-        <v>21</v>
-      </c>
-      <c r="AQ142" s="11">
-        <v>29</v>
-      </c>
-      <c r="AS142" s="11">
-        <v>37</v>
-      </c>
-      <c r="AT142" s="11">
-        <v>45</v>
-      </c>
-      <c r="AV142" s="11">
-        <v>53</v>
-      </c>
-      <c r="AW142" s="11">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C143" s="9">
-        <v>6</v>
-      </c>
-      <c r="D143" s="9">
-        <v>14</v>
-      </c>
-      <c r="F143" s="9">
-        <v>22</v>
-      </c>
-      <c r="G143" s="9">
-        <v>30</v>
-      </c>
-      <c r="I143" s="9">
-        <v>38</v>
-      </c>
-      <c r="J143" s="9">
-        <v>46</v>
-      </c>
-      <c r="L143" s="9">
-        <v>54</v>
-      </c>
-      <c r="M143" s="9">
-        <v>62</v>
-      </c>
-      <c r="O143" s="10">
-        <v>6</v>
-      </c>
-      <c r="P143" s="10">
-        <v>14</v>
-      </c>
-      <c r="R143" s="10">
-        <v>22</v>
-      </c>
-      <c r="S143" s="10">
-        <v>30</v>
-      </c>
-      <c r="U143" s="10">
-        <v>38</v>
-      </c>
-      <c r="V143" s="10">
-        <v>46</v>
-      </c>
-      <c r="X143" s="10">
-        <v>54</v>
-      </c>
-      <c r="Y143" s="10">
-        <v>62</v>
-      </c>
-      <c r="AA143" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB143" s="2">
-        <v>14</v>
-      </c>
-      <c r="AD143" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE143" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG143" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH143" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ143" s="2">
-        <v>54</v>
-      </c>
-      <c r="AK143" s="2">
-        <v>62</v>
-      </c>
-      <c r="AM143" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN143" s="11">
-        <v>14</v>
-      </c>
-      <c r="AP143" s="11">
-        <v>22</v>
-      </c>
-      <c r="AQ143" s="11">
-        <v>30</v>
-      </c>
-      <c r="AS143" s="11">
-        <v>38</v>
-      </c>
-      <c r="AT143" s="11">
-        <v>46</v>
-      </c>
-      <c r="AV143" s="11">
-        <v>54</v>
-      </c>
-      <c r="AW143" s="11">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C144" s="9">
-        <v>7</v>
-      </c>
-      <c r="D144" s="9">
-        <v>15</v>
-      </c>
-      <c r="F144" s="9">
-        <v>23</v>
-      </c>
-      <c r="G144" s="9">
-        <v>31</v>
-      </c>
-      <c r="I144" s="9">
-        <v>39</v>
-      </c>
-      <c r="J144" s="9">
-        <v>47</v>
-      </c>
-      <c r="L144" s="9">
-        <v>55</v>
-      </c>
-      <c r="M144" s="9">
-        <v>63</v>
-      </c>
-      <c r="O144" s="10">
-        <v>7</v>
-      </c>
-      <c r="P144" s="10">
-        <v>15</v>
-      </c>
-      <c r="R144" s="10">
-        <v>23</v>
-      </c>
-      <c r="S144" s="10">
-        <v>31</v>
-      </c>
-      <c r="U144" s="10">
-        <v>39</v>
-      </c>
-      <c r="V144" s="10">
-        <v>47</v>
-      </c>
-      <c r="X144" s="10">
-        <v>55</v>
-      </c>
-      <c r="Y144" s="10">
-        <v>63</v>
-      </c>
-      <c r="AA144" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB144" s="2">
-        <v>15</v>
-      </c>
-      <c r="AD144" s="2">
-        <v>23</v>
-      </c>
-      <c r="AE144" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG144" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH144" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ144" s="2">
-        <v>55</v>
-      </c>
-      <c r="AK144" s="2">
-        <v>63</v>
-      </c>
-      <c r="AM144" s="11">
-        <v>7</v>
-      </c>
-      <c r="AN144" s="11">
-        <v>15</v>
-      </c>
-      <c r="AP144" s="11">
-        <v>23</v>
-      </c>
-      <c r="AQ144" s="11">
-        <v>31</v>
-      </c>
-      <c r="AS144" s="11">
-        <v>39</v>
-      </c>
-      <c r="AT144" s="11">
-        <v>47</v>
-      </c>
-      <c r="AV144" s="11">
-        <v>55</v>
-      </c>
-      <c r="AW144" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C147" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="I147" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J147" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L147" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M147" s="12"/>
-      <c r="O147" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P147" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R147" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S147" s="13"/>
-      <c r="U147" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V147" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="X147" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y147" s="13"/>
+      <c r="Y147" s="10"/>
       <c r="AA147" s="3" t="s">
         <v>0</v>
       </c>
@@ -7420,44 +7434,44 @@
         <v>21</v>
       </c>
       <c r="AK147" s="3"/>
-      <c r="AM147" s="14" t="s">
+      <c r="AM147" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AN147" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP147" s="14" t="s">
+      <c r="AN147" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP147" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AQ147" s="14"/>
-      <c r="AS147" s="14" t="s">
+      <c r="AQ147" s="16"/>
+      <c r="AS147" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AT147" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV147" s="14" t="s">
+      <c r="AT147" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV147" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AW147" s="14"/>
+      <c r="AW147" s="16"/>
     </row>
     <row r="148" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="O148" s="13"/>
-      <c r="P148" s="13"/>
-      <c r="R148" s="13"/>
-      <c r="S148" s="13"/>
-      <c r="U148" s="13"/>
-      <c r="V148" s="13"/>
-      <c r="X148" s="13"/>
-      <c r="Y148" s="13"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="10"/>
+      <c r="R148" s="10"/>
+      <c r="S148" s="10"/>
+      <c r="U148" s="10"/>
+      <c r="V148" s="10"/>
+      <c r="X148" s="10"/>
+      <c r="Y148" s="10"/>
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AD148" s="3"/>
@@ -7466,62 +7480,62 @@
       <c r="AH148" s="3"/>
       <c r="AJ148" s="3"/>
       <c r="AK148" s="3"/>
-      <c r="AM148" s="14"/>
-      <c r="AN148" s="14"/>
-      <c r="AP148" s="14"/>
-      <c r="AQ148" s="14"/>
-      <c r="AS148" s="14"/>
-      <c r="AT148" s="14"/>
-      <c r="AV148" s="14"/>
-      <c r="AW148" s="14"/>
+      <c r="AM148" s="16"/>
+      <c r="AN148" s="16"/>
+      <c r="AP148" s="16"/>
+      <c r="AQ148" s="16"/>
+      <c r="AS148" s="16"/>
+      <c r="AT148" s="16"/>
+      <c r="AV148" s="16"/>
+      <c r="AW148" s="16"/>
     </row>
     <row r="149" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C149" s="12">
+      <c r="C149" s="7">
         <v>0</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="7">
         <v>8</v>
       </c>
-      <c r="F149" s="12">
+      <c r="F149" s="7">
         <v>16</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="7">
         <v>24</v>
       </c>
-      <c r="I149" s="12">
+      <c r="I149" s="7">
         <v>32</v>
       </c>
-      <c r="J149" s="12">
+      <c r="J149" s="7">
         <v>40</v>
       </c>
-      <c r="L149" s="12">
+      <c r="L149" s="7">
         <v>48</v>
       </c>
-      <c r="M149" s="12">
+      <c r="M149" s="7">
         <v>56</v>
       </c>
-      <c r="O149" s="13">
+      <c r="O149" s="10">
         <v>0</v>
       </c>
-      <c r="P149" s="13">
+      <c r="P149" s="10">
         <v>8</v>
       </c>
-      <c r="R149" s="13">
+      <c r="R149" s="10">
         <v>16</v>
       </c>
-      <c r="S149" s="13">
+      <c r="S149" s="10">
         <v>24</v>
       </c>
-      <c r="U149" s="13">
+      <c r="U149" s="10">
         <v>32</v>
       </c>
-      <c r="V149" s="13">
+      <c r="V149" s="10">
         <v>40</v>
       </c>
-      <c r="X149" s="13">
+      <c r="X149" s="10">
         <v>48</v>
       </c>
-      <c r="Y149" s="13">
+      <c r="Y149" s="10">
         <v>56</v>
       </c>
       <c r="AA149" s="3">
@@ -7548,78 +7562,78 @@
       <c r="AK149" s="3">
         <v>56</v>
       </c>
-      <c r="AM149" s="14">
+      <c r="AM149" s="16">
         <v>0</v>
       </c>
-      <c r="AN149" s="14">
+      <c r="AN149" s="16">
         <v>8</v>
       </c>
-      <c r="AP149" s="14">
+      <c r="AP149" s="16">
         <v>16</v>
       </c>
-      <c r="AQ149" s="14">
+      <c r="AQ149" s="16">
         <v>24</v>
       </c>
-      <c r="AS149" s="14">
+      <c r="AS149" s="16">
         <v>32</v>
       </c>
-      <c r="AT149" s="14">
+      <c r="AT149" s="16">
         <v>40</v>
       </c>
-      <c r="AV149" s="14">
+      <c r="AV149" s="16">
         <v>48</v>
       </c>
-      <c r="AW149" s="14">
+      <c r="AW149" s="16">
         <v>56</v>
       </c>
     </row>
     <row r="150" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C150" s="12">
+      <c r="C150" s="7">
         <v>1</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="7">
         <v>9</v>
       </c>
-      <c r="F150" s="12">
+      <c r="F150" s="7">
         <v>17</v>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="7">
         <v>25</v>
       </c>
-      <c r="I150" s="12">
+      <c r="I150" s="7">
         <v>33</v>
       </c>
-      <c r="J150" s="12">
+      <c r="J150" s="7">
         <v>41</v>
       </c>
-      <c r="L150" s="12">
+      <c r="L150" s="7">
         <v>49</v>
       </c>
-      <c r="M150" s="12">
+      <c r="M150" s="7">
         <v>57</v>
       </c>
-      <c r="O150" s="13">
+      <c r="O150" s="10">
         <v>1</v>
       </c>
-      <c r="P150" s="13">
+      <c r="P150" s="10">
         <v>9</v>
       </c>
-      <c r="R150" s="13">
+      <c r="R150" s="10">
         <v>17</v>
       </c>
-      <c r="S150" s="13">
+      <c r="S150" s="10">
         <v>25</v>
       </c>
-      <c r="U150" s="13">
+      <c r="U150" s="10">
         <v>33</v>
       </c>
-      <c r="V150" s="13">
+      <c r="V150" s="10">
         <v>41</v>
       </c>
-      <c r="X150" s="13">
+      <c r="X150" s="10">
         <v>49</v>
       </c>
-      <c r="Y150" s="13">
+      <c r="Y150" s="10">
         <v>57</v>
       </c>
       <c r="AA150" s="3">
@@ -7646,78 +7660,78 @@
       <c r="AK150" s="3">
         <v>57</v>
       </c>
-      <c r="AM150" s="14">
+      <c r="AM150" s="16">
         <v>1</v>
       </c>
-      <c r="AN150" s="14">
+      <c r="AN150" s="16">
         <v>9</v>
       </c>
-      <c r="AP150" s="14">
+      <c r="AP150" s="16">
         <v>17</v>
       </c>
-      <c r="AQ150" s="14">
+      <c r="AQ150" s="16">
         <v>25</v>
       </c>
-      <c r="AS150" s="14">
+      <c r="AS150" s="16">
         <v>33</v>
       </c>
-      <c r="AT150" s="14">
+      <c r="AT150" s="16">
         <v>41</v>
       </c>
-      <c r="AV150" s="14">
+      <c r="AV150" s="16">
         <v>49</v>
       </c>
-      <c r="AW150" s="14">
+      <c r="AW150" s="16">
         <v>57</v>
       </c>
     </row>
     <row r="151" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C151" s="12">
+      <c r="C151" s="7">
         <v>2</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="7">
         <v>10</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="7">
         <v>18</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="7">
         <v>26</v>
       </c>
-      <c r="I151" s="12">
+      <c r="I151" s="7">
         <v>34</v>
       </c>
-      <c r="J151" s="12">
+      <c r="J151" s="7">
         <v>42</v>
       </c>
-      <c r="L151" s="12">
+      <c r="L151" s="7">
         <v>50</v>
       </c>
-      <c r="M151" s="12">
+      <c r="M151" s="7">
         <v>58</v>
       </c>
-      <c r="O151" s="13">
+      <c r="O151" s="10">
         <v>2</v>
       </c>
-      <c r="P151" s="13">
+      <c r="P151" s="10">
         <v>10</v>
       </c>
-      <c r="R151" s="13">
+      <c r="R151" s="10">
         <v>18</v>
       </c>
-      <c r="S151" s="13">
+      <c r="S151" s="10">
         <v>26</v>
       </c>
-      <c r="U151" s="13">
+      <c r="U151" s="10">
         <v>34</v>
       </c>
-      <c r="V151" s="13">
+      <c r="V151" s="10">
         <v>42</v>
       </c>
-      <c r="X151" s="13">
+      <c r="X151" s="10">
         <v>50</v>
       </c>
-      <c r="Y151" s="13">
+      <c r="Y151" s="10">
         <v>58</v>
       </c>
       <c r="AA151" s="3">
@@ -7744,78 +7758,78 @@
       <c r="AK151" s="3">
         <v>58</v>
       </c>
-      <c r="AM151" s="14">
+      <c r="AM151" s="16">
         <v>2</v>
       </c>
-      <c r="AN151" s="14">
+      <c r="AN151" s="16">
         <v>10</v>
       </c>
-      <c r="AP151" s="14">
+      <c r="AP151" s="16">
         <v>18</v>
       </c>
-      <c r="AQ151" s="14">
+      <c r="AQ151" s="16">
         <v>26</v>
       </c>
-      <c r="AS151" s="14">
+      <c r="AS151" s="16">
         <v>34</v>
       </c>
-      <c r="AT151" s="14">
+      <c r="AT151" s="16">
         <v>42</v>
       </c>
-      <c r="AV151" s="14">
+      <c r="AV151" s="16">
         <v>50</v>
       </c>
-      <c r="AW151" s="14">
+      <c r="AW151" s="16">
         <v>58</v>
       </c>
     </row>
     <row r="152" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C152" s="12">
+      <c r="C152" s="7">
         <v>3</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="7">
         <v>11</v>
       </c>
-      <c r="F152" s="12">
+      <c r="F152" s="7">
         <v>19</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="7">
         <v>27</v>
       </c>
-      <c r="I152" s="12">
+      <c r="I152" s="7">
         <v>35</v>
       </c>
-      <c r="J152" s="12">
+      <c r="J152" s="7">
         <v>43</v>
       </c>
-      <c r="L152" s="12">
+      <c r="L152" s="7">
         <v>51</v>
       </c>
-      <c r="M152" s="12">
+      <c r="M152" s="7">
         <v>59</v>
       </c>
-      <c r="O152" s="13">
+      <c r="O152" s="10">
         <v>3</v>
       </c>
-      <c r="P152" s="13">
+      <c r="P152" s="10">
         <v>11</v>
       </c>
-      <c r="R152" s="13">
+      <c r="R152" s="10">
         <v>19</v>
       </c>
-      <c r="S152" s="13">
+      <c r="S152" s="10">
         <v>27</v>
       </c>
-      <c r="U152" s="13">
+      <c r="U152" s="10">
         <v>35</v>
       </c>
-      <c r="V152" s="13">
+      <c r="V152" s="10">
         <v>43</v>
       </c>
-      <c r="X152" s="13">
+      <c r="X152" s="10">
         <v>51</v>
       </c>
-      <c r="Y152" s="13">
+      <c r="Y152" s="10">
         <v>59</v>
       </c>
       <c r="AA152" s="3">
@@ -7842,78 +7856,78 @@
       <c r="AK152" s="3">
         <v>59</v>
       </c>
-      <c r="AM152" s="14">
+      <c r="AM152" s="16">
         <v>3</v>
       </c>
-      <c r="AN152" s="14">
+      <c r="AN152" s="16">
         <v>11</v>
       </c>
-      <c r="AP152" s="14">
+      <c r="AP152" s="16">
         <v>19</v>
       </c>
-      <c r="AQ152" s="14">
+      <c r="AQ152" s="16">
         <v>27</v>
       </c>
-      <c r="AS152" s="14">
+      <c r="AS152" s="16">
         <v>35</v>
       </c>
-      <c r="AT152" s="14">
+      <c r="AT152" s="16">
         <v>43</v>
       </c>
-      <c r="AV152" s="14">
+      <c r="AV152" s="16">
         <v>51</v>
       </c>
-      <c r="AW152" s="14">
+      <c r="AW152" s="16">
         <v>59</v>
       </c>
     </row>
     <row r="153" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C153" s="12">
+      <c r="C153" s="7">
         <v>4</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="7">
         <v>12</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="7">
         <v>20</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="7">
         <v>28</v>
       </c>
-      <c r="I153" s="12">
+      <c r="I153" s="7">
         <v>36</v>
       </c>
-      <c r="J153" s="12">
+      <c r="J153" s="7">
         <v>44</v>
       </c>
-      <c r="L153" s="12">
+      <c r="L153" s="7">
         <v>52</v>
       </c>
-      <c r="M153" s="12">
+      <c r="M153" s="7">
         <v>60</v>
       </c>
-      <c r="O153" s="13">
+      <c r="O153" s="10">
         <v>4</v>
       </c>
-      <c r="P153" s="13">
+      <c r="P153" s="10">
         <v>12</v>
       </c>
-      <c r="R153" s="13">
+      <c r="R153" s="10">
         <v>20</v>
       </c>
-      <c r="S153" s="13">
+      <c r="S153" s="10">
         <v>28</v>
       </c>
-      <c r="U153" s="13">
+      <c r="U153" s="10">
         <v>36</v>
       </c>
-      <c r="V153" s="13">
+      <c r="V153" s="10">
         <v>44</v>
       </c>
-      <c r="X153" s="13">
+      <c r="X153" s="10">
         <v>52</v>
       </c>
-      <c r="Y153" s="13">
+      <c r="Y153" s="10">
         <v>60</v>
       </c>
       <c r="AA153" s="3">
@@ -7940,78 +7954,78 @@
       <c r="AK153" s="3">
         <v>60</v>
       </c>
-      <c r="AM153" s="14">
+      <c r="AM153" s="16">
         <v>4</v>
       </c>
-      <c r="AN153" s="14">
+      <c r="AN153" s="16">
         <v>12</v>
       </c>
-      <c r="AP153" s="14">
+      <c r="AP153" s="16">
         <v>20</v>
       </c>
-      <c r="AQ153" s="14">
+      <c r="AQ153" s="16">
         <v>28</v>
       </c>
-      <c r="AS153" s="14">
+      <c r="AS153" s="16">
         <v>36</v>
       </c>
-      <c r="AT153" s="14">
+      <c r="AT153" s="16">
         <v>44</v>
       </c>
-      <c r="AV153" s="14">
+      <c r="AV153" s="16">
         <v>52</v>
       </c>
-      <c r="AW153" s="14">
+      <c r="AW153" s="16">
         <v>60</v>
       </c>
     </row>
     <row r="154" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C154" s="12">
+      <c r="C154" s="7">
         <v>5</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="7">
         <v>13</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="7">
         <v>29</v>
       </c>
-      <c r="I154" s="12">
+      <c r="I154" s="7">
         <v>37</v>
       </c>
-      <c r="J154" s="12">
+      <c r="J154" s="7">
         <v>45</v>
       </c>
-      <c r="L154" s="12">
+      <c r="L154" s="7">
         <v>53</v>
       </c>
-      <c r="M154" s="12">
+      <c r="M154" s="7">
         <v>61</v>
       </c>
-      <c r="O154" s="13">
+      <c r="O154" s="10">
         <v>5</v>
       </c>
-      <c r="P154" s="13">
+      <c r="P154" s="10">
         <v>13</v>
       </c>
-      <c r="R154" s="13">
+      <c r="R154" s="10">
         <v>21</v>
       </c>
-      <c r="S154" s="13">
+      <c r="S154" s="10">
         <v>29</v>
       </c>
-      <c r="U154" s="13">
+      <c r="U154" s="10">
         <v>37</v>
       </c>
-      <c r="V154" s="13">
+      <c r="V154" s="10">
         <v>45</v>
       </c>
-      <c r="X154" s="13">
+      <c r="X154" s="10">
         <v>53</v>
       </c>
-      <c r="Y154" s="13">
+      <c r="Y154" s="10">
         <v>61</v>
       </c>
       <c r="AA154" s="3">
@@ -8038,78 +8052,78 @@
       <c r="AK154" s="3">
         <v>61</v>
       </c>
-      <c r="AM154" s="14">
+      <c r="AM154" s="16">
         <v>5</v>
       </c>
-      <c r="AN154" s="14">
+      <c r="AN154" s="16">
         <v>13</v>
       </c>
-      <c r="AP154" s="14">
+      <c r="AP154" s="16">
         <v>21</v>
       </c>
-      <c r="AQ154" s="14">
+      <c r="AQ154" s="16">
         <v>29</v>
       </c>
-      <c r="AS154" s="14">
+      <c r="AS154" s="16">
         <v>37</v>
       </c>
-      <c r="AT154" s="14">
+      <c r="AT154" s="16">
         <v>45</v>
       </c>
-      <c r="AV154" s="14">
+      <c r="AV154" s="16">
         <v>53</v>
       </c>
-      <c r="AW154" s="14">
+      <c r="AW154" s="16">
         <v>61</v>
       </c>
     </row>
     <row r="155" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C155" s="12">
+      <c r="C155" s="7">
         <v>6</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="7">
         <v>14</v>
       </c>
-      <c r="F155" s="12">
+      <c r="F155" s="7">
         <v>22</v>
       </c>
-      <c r="G155" s="12">
+      <c r="G155" s="7">
         <v>30</v>
       </c>
-      <c r="I155" s="12">
+      <c r="I155" s="7">
         <v>38</v>
       </c>
-      <c r="J155" s="12">
+      <c r="J155" s="7">
         <v>46</v>
       </c>
-      <c r="L155" s="12">
+      <c r="L155" s="7">
         <v>54</v>
       </c>
-      <c r="M155" s="12">
+      <c r="M155" s="7">
         <v>62</v>
       </c>
-      <c r="O155" s="13">
+      <c r="O155" s="10">
         <v>6</v>
       </c>
-      <c r="P155" s="13">
+      <c r="P155" s="10">
         <v>14</v>
       </c>
-      <c r="R155" s="13">
+      <c r="R155" s="10">
         <v>22</v>
       </c>
-      <c r="S155" s="13">
+      <c r="S155" s="10">
         <v>30</v>
       </c>
-      <c r="U155" s="13">
+      <c r="U155" s="10">
         <v>38</v>
       </c>
-      <c r="V155" s="13">
+      <c r="V155" s="10">
         <v>46</v>
       </c>
-      <c r="X155" s="13">
+      <c r="X155" s="10">
         <v>54</v>
       </c>
-      <c r="Y155" s="13">
+      <c r="Y155" s="10">
         <v>62</v>
       </c>
       <c r="AA155" s="3">
@@ -8136,78 +8150,78 @@
       <c r="AK155" s="3">
         <v>62</v>
       </c>
-      <c r="AM155" s="14">
+      <c r="AM155" s="16">
         <v>6</v>
       </c>
-      <c r="AN155" s="14">
+      <c r="AN155" s="16">
         <v>14</v>
       </c>
-      <c r="AP155" s="14">
+      <c r="AP155" s="16">
         <v>22</v>
       </c>
-      <c r="AQ155" s="14">
+      <c r="AQ155" s="16">
         <v>30</v>
       </c>
-      <c r="AS155" s="14">
+      <c r="AS155" s="16">
         <v>38</v>
       </c>
-      <c r="AT155" s="14">
+      <c r="AT155" s="16">
         <v>46</v>
       </c>
-      <c r="AV155" s="14">
+      <c r="AV155" s="16">
         <v>54</v>
       </c>
-      <c r="AW155" s="14">
+      <c r="AW155" s="16">
         <v>62</v>
       </c>
     </row>
     <row r="156" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C156" s="12">
+      <c r="C156" s="7">
         <v>7</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="7">
         <v>15</v>
       </c>
-      <c r="F156" s="12">
+      <c r="F156" s="7">
         <v>23</v>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="7">
         <v>31</v>
       </c>
-      <c r="I156" s="12">
+      <c r="I156" s="7">
         <v>39</v>
       </c>
-      <c r="J156" s="12">
+      <c r="J156" s="7">
         <v>47</v>
       </c>
-      <c r="L156" s="12">
+      <c r="L156" s="7">
         <v>55</v>
       </c>
-      <c r="M156" s="12">
+      <c r="M156" s="7">
         <v>63</v>
       </c>
-      <c r="O156" s="13">
+      <c r="O156" s="10">
         <v>7</v>
       </c>
-      <c r="P156" s="13">
+      <c r="P156" s="10">
         <v>15</v>
       </c>
-      <c r="R156" s="13">
+      <c r="R156" s="10">
         <v>23</v>
       </c>
-      <c r="S156" s="13">
+      <c r="S156" s="10">
         <v>31</v>
       </c>
-      <c r="U156" s="13">
+      <c r="U156" s="10">
         <v>39</v>
       </c>
-      <c r="V156" s="13">
+      <c r="V156" s="10">
         <v>47</v>
       </c>
-      <c r="X156" s="13">
+      <c r="X156" s="10">
         <v>55</v>
       </c>
-      <c r="Y156" s="13">
+      <c r="Y156" s="10">
         <v>63</v>
       </c>
       <c r="AA156" s="3">
@@ -8234,929 +8248,927 @@
       <c r="AK156" s="3">
         <v>63</v>
       </c>
-      <c r="AM156" s="14">
+      <c r="AM156" s="16">
         <v>7</v>
       </c>
-      <c r="AN156" s="14">
+      <c r="AN156" s="16">
         <v>15</v>
       </c>
-      <c r="AP156" s="14">
+      <c r="AP156" s="16">
         <v>23</v>
       </c>
-      <c r="AQ156" s="14">
+      <c r="AQ156" s="16">
         <v>31</v>
       </c>
-      <c r="AS156" s="14">
+      <c r="AS156" s="16">
         <v>39</v>
       </c>
-      <c r="AT156" s="14">
+      <c r="AT156" s="16">
         <v>47</v>
       </c>
-      <c r="AV156" s="14">
+      <c r="AV156" s="16">
         <v>55</v>
       </c>
-      <c r="AW156" s="14">
+      <c r="AW156" s="16">
         <v>63</v>
       </c>
     </row>
     <row r="159" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="F159" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="8"/>
+      <c r="I159" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J159" s="8"/>
+      <c r="L159" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="M159" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O159" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P159" s="9"/>
+      <c r="R159" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S159" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U159" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V159" s="9"/>
+      <c r="X159" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA159" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB159" s="14"/>
+      <c r="AD159" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE159" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG159" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH159" s="14"/>
+      <c r="AJ159" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK159" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM159" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN159" s="15"/>
+      <c r="AP159" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ159" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="AS159" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G159" s="15"/>
-      <c r="I159" s="15" t="s">
+      <c r="AT159" s="15"/>
+      <c r="AV159" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW159" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="R160" s="9"/>
+      <c r="S160" s="9"/>
+      <c r="U160" s="9"/>
+      <c r="V160" s="9"/>
+      <c r="X160" s="9"/>
+      <c r="Y160" s="9"/>
+      <c r="AA160" s="14"/>
+      <c r="AB160" s="14"/>
+      <c r="AD160" s="14"/>
+      <c r="AE160" s="14"/>
+      <c r="AG160" s="14"/>
+      <c r="AH160" s="14"/>
+      <c r="AJ160" s="14"/>
+      <c r="AK160" s="14"/>
+      <c r="AM160" s="15"/>
+      <c r="AN160" s="15"/>
+      <c r="AP160" s="15"/>
+      <c r="AQ160" s="15"/>
+      <c r="AS160" s="15"/>
+      <c r="AT160" s="15"/>
+      <c r="AV160" s="15"/>
+      <c r="AW160" s="15"/>
+    </row>
+    <row r="161" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C161" s="8">
+        <v>48</v>
+      </c>
+      <c r="D161" s="8">
+        <v>56</v>
+      </c>
+      <c r="F161" s="8">
+        <v>32</v>
+      </c>
+      <c r="G161" s="8">
+        <v>40</v>
+      </c>
+      <c r="I161" s="8">
+        <v>16</v>
+      </c>
+      <c r="J161" s="8">
+        <v>24</v>
+      </c>
+      <c r="L161" s="8">
+        <v>0</v>
+      </c>
+      <c r="M161" s="8">
+        <v>8</v>
+      </c>
+      <c r="O161" s="9">
+        <v>48</v>
+      </c>
+      <c r="P161" s="9">
+        <v>56</v>
+      </c>
+      <c r="R161" s="9">
+        <v>32</v>
+      </c>
+      <c r="S161" s="9">
+        <v>40</v>
+      </c>
+      <c r="U161" s="9">
+        <v>16</v>
+      </c>
+      <c r="V161" s="9">
+        <v>24</v>
+      </c>
+      <c r="X161" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="9">
+        <v>8</v>
+      </c>
+      <c r="AA161" s="14">
+        <v>48</v>
+      </c>
+      <c r="AB161" s="14">
+        <v>56</v>
+      </c>
+      <c r="AD161" s="14">
+        <v>32</v>
+      </c>
+      <c r="AE161" s="14">
+        <v>40</v>
+      </c>
+      <c r="AG161" s="14">
+        <v>16</v>
+      </c>
+      <c r="AH161" s="14">
+        <v>24</v>
+      </c>
+      <c r="AJ161" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK161" s="14">
+        <v>8</v>
+      </c>
+      <c r="AM161" s="15">
+        <v>48</v>
+      </c>
+      <c r="AN161" s="15">
+        <v>56</v>
+      </c>
+      <c r="AP161" s="15">
+        <v>32</v>
+      </c>
+      <c r="AQ161" s="15">
+        <v>40</v>
+      </c>
+      <c r="AS161" s="15">
+        <v>16</v>
+      </c>
+      <c r="AT161" s="15">
+        <v>24</v>
+      </c>
+      <c r="AV161" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW161" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C162" s="8">
+        <v>49</v>
+      </c>
+      <c r="D162" s="8">
+        <v>57</v>
+      </c>
+      <c r="F162" s="8">
+        <v>33</v>
+      </c>
+      <c r="G162" s="8">
+        <v>41</v>
+      </c>
+      <c r="I162" s="8">
+        <v>17</v>
+      </c>
+      <c r="J162" s="8">
+        <v>25</v>
+      </c>
+      <c r="L162" s="8">
+        <v>1</v>
+      </c>
+      <c r="M162" s="8">
+        <v>9</v>
+      </c>
+      <c r="O162" s="9">
+        <v>49</v>
+      </c>
+      <c r="P162" s="9">
+        <v>57</v>
+      </c>
+      <c r="R162" s="9">
+        <v>33</v>
+      </c>
+      <c r="S162" s="9">
+        <v>41</v>
+      </c>
+      <c r="U162" s="9">
+        <v>17</v>
+      </c>
+      <c r="V162" s="9">
+        <v>25</v>
+      </c>
+      <c r="X162" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y162" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA162" s="14">
+        <v>49</v>
+      </c>
+      <c r="AB162" s="14">
+        <v>57</v>
+      </c>
+      <c r="AD162" s="14">
+        <v>33</v>
+      </c>
+      <c r="AE162" s="14">
+        <v>41</v>
+      </c>
+      <c r="AG162" s="14">
+        <v>17</v>
+      </c>
+      <c r="AH162" s="14">
+        <v>25</v>
+      </c>
+      <c r="AJ162" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK162" s="14">
+        <v>9</v>
+      </c>
+      <c r="AM162" s="15">
+        <v>49</v>
+      </c>
+      <c r="AN162" s="15">
+        <v>57</v>
+      </c>
+      <c r="AP162" s="15">
+        <v>33</v>
+      </c>
+      <c r="AQ162" s="15">
+        <v>41</v>
+      </c>
+      <c r="AS162" s="15">
+        <v>17</v>
+      </c>
+      <c r="AT162" s="15">
+        <v>25</v>
+      </c>
+      <c r="AV162" s="15">
+        <v>1</v>
+      </c>
+      <c r="AW162" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C163" s="8">
+        <v>50</v>
+      </c>
+      <c r="D163" s="8">
+        <v>58</v>
+      </c>
+      <c r="F163" s="8">
+        <v>34</v>
+      </c>
+      <c r="G163" s="8">
+        <v>42</v>
+      </c>
+      <c r="I163" s="8">
+        <v>18</v>
+      </c>
+      <c r="J163" s="8">
+        <v>26</v>
+      </c>
+      <c r="L163" s="8">
+        <v>2</v>
+      </c>
+      <c r="M163" s="8">
+        <v>10</v>
+      </c>
+      <c r="O163" s="9">
+        <v>50</v>
+      </c>
+      <c r="P163" s="9">
+        <v>58</v>
+      </c>
+      <c r="R163" s="9">
+        <v>34</v>
+      </c>
+      <c r="S163" s="9">
+        <v>42</v>
+      </c>
+      <c r="U163" s="9">
+        <v>18</v>
+      </c>
+      <c r="V163" s="9">
+        <v>26</v>
+      </c>
+      <c r="X163" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y163" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA163" s="14">
+        <v>50</v>
+      </c>
+      <c r="AB163" s="14">
+        <v>58</v>
+      </c>
+      <c r="AD163" s="14">
+        <v>34</v>
+      </c>
+      <c r="AE163" s="14">
+        <v>42</v>
+      </c>
+      <c r="AG163" s="14">
+        <v>18</v>
+      </c>
+      <c r="AH163" s="14">
+        <v>26</v>
+      </c>
+      <c r="AJ163" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK163" s="14">
+        <v>10</v>
+      </c>
+      <c r="AM163" s="15">
+        <v>50</v>
+      </c>
+      <c r="AN163" s="15">
+        <v>58</v>
+      </c>
+      <c r="AP163" s="15">
+        <v>34</v>
+      </c>
+      <c r="AQ163" s="15">
+        <v>42</v>
+      </c>
+      <c r="AS163" s="15">
+        <v>18</v>
+      </c>
+      <c r="AT163" s="15">
+        <v>26</v>
+      </c>
+      <c r="AV163" s="15">
+        <v>2</v>
+      </c>
+      <c r="AW163" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C164" s="8">
+        <v>51</v>
+      </c>
+      <c r="D164" s="8">
+        <v>59</v>
+      </c>
+      <c r="F164" s="8">
+        <v>35</v>
+      </c>
+      <c r="G164" s="8">
+        <v>43</v>
+      </c>
+      <c r="I164" s="8">
+        <v>19</v>
+      </c>
+      <c r="J164" s="8">
+        <v>27</v>
+      </c>
+      <c r="L164" s="8">
+        <v>3</v>
+      </c>
+      <c r="M164" s="8">
+        <v>11</v>
+      </c>
+      <c r="O164" s="9">
+        <v>51</v>
+      </c>
+      <c r="P164" s="9">
+        <v>59</v>
+      </c>
+      <c r="R164" s="9">
+        <v>35</v>
+      </c>
+      <c r="S164" s="9">
+        <v>43</v>
+      </c>
+      <c r="U164" s="9">
+        <v>19</v>
+      </c>
+      <c r="V164" s="9">
+        <v>27</v>
+      </c>
+      <c r="X164" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y164" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA164" s="14">
+        <v>51</v>
+      </c>
+      <c r="AB164" s="14">
+        <v>59</v>
+      </c>
+      <c r="AD164" s="14">
+        <v>35</v>
+      </c>
+      <c r="AE164" s="14">
+        <v>43</v>
+      </c>
+      <c r="AG164" s="14">
+        <v>19</v>
+      </c>
+      <c r="AH164" s="14">
+        <v>27</v>
+      </c>
+      <c r="AJ164" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK164" s="14">
+        <v>11</v>
+      </c>
+      <c r="AM164" s="15">
+        <v>51</v>
+      </c>
+      <c r="AN164" s="15">
+        <v>59</v>
+      </c>
+      <c r="AP164" s="15">
+        <v>35</v>
+      </c>
+      <c r="AQ164" s="15">
+        <v>43</v>
+      </c>
+      <c r="AS164" s="15">
+        <v>19</v>
+      </c>
+      <c r="AT164" s="15">
+        <v>27</v>
+      </c>
+      <c r="AV164" s="15">
+        <v>3</v>
+      </c>
+      <c r="AW164" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C165" s="8">
+        <v>52</v>
+      </c>
+      <c r="D165" s="8">
+        <v>60</v>
+      </c>
+      <c r="F165" s="8">
+        <v>36</v>
+      </c>
+      <c r="G165" s="8">
+        <v>44</v>
+      </c>
+      <c r="I165" s="8">
         <v>20</v>
       </c>
-      <c r="J159" s="15" t="s">
+      <c r="J165" s="8">
+        <v>28</v>
+      </c>
+      <c r="L165" s="8">
+        <v>4</v>
+      </c>
+      <c r="M165" s="8">
+        <v>12</v>
+      </c>
+      <c r="O165" s="9">
+        <v>52</v>
+      </c>
+      <c r="P165" s="9">
+        <v>60</v>
+      </c>
+      <c r="R165" s="9">
+        <v>36</v>
+      </c>
+      <c r="S165" s="9">
+        <v>44</v>
+      </c>
+      <c r="U165" s="9">
+        <v>20</v>
+      </c>
+      <c r="V165" s="9">
+        <v>28</v>
+      </c>
+      <c r="X165" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y165" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA165" s="14">
+        <v>52</v>
+      </c>
+      <c r="AB165" s="14">
+        <v>60</v>
+      </c>
+      <c r="AD165" s="14">
+        <v>36</v>
+      </c>
+      <c r="AE165" s="14">
+        <v>44</v>
+      </c>
+      <c r="AG165" s="14">
+        <v>20</v>
+      </c>
+      <c r="AH165" s="14">
+        <v>28</v>
+      </c>
+      <c r="AJ165" s="14">
+        <v>4</v>
+      </c>
+      <c r="AK165" s="14">
+        <v>12</v>
+      </c>
+      <c r="AM165" s="15">
+        <v>52</v>
+      </c>
+      <c r="AN165" s="15">
+        <v>60</v>
+      </c>
+      <c r="AP165" s="15">
+        <v>36</v>
+      </c>
+      <c r="AQ165" s="15">
+        <v>44</v>
+      </c>
+      <c r="AS165" s="15">
+        <v>20</v>
+      </c>
+      <c r="AT165" s="15">
+        <v>28</v>
+      </c>
+      <c r="AV165" s="15">
+        <v>4</v>
+      </c>
+      <c r="AW165" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C166" s="8">
+        <v>53</v>
+      </c>
+      <c r="D166" s="8">
+        <v>61</v>
+      </c>
+      <c r="F166" s="8">
+        <v>37</v>
+      </c>
+      <c r="G166" s="8">
+        <v>45</v>
+      </c>
+      <c r="I166" s="8">
+        <v>21</v>
+      </c>
+      <c r="J166" s="8">
+        <v>29</v>
+      </c>
+      <c r="L166" s="8">
+        <v>5</v>
+      </c>
+      <c r="M166" s="8">
+        <v>13</v>
+      </c>
+      <c r="O166" s="9">
+        <v>53</v>
+      </c>
+      <c r="P166" s="9">
+        <v>61</v>
+      </c>
+      <c r="R166" s="9">
+        <v>37</v>
+      </c>
+      <c r="S166" s="9">
+        <v>45</v>
+      </c>
+      <c r="U166" s="9">
+        <v>21</v>
+      </c>
+      <c r="V166" s="9">
+        <v>29</v>
+      </c>
+      <c r="X166" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y166" s="9">
+        <v>13</v>
+      </c>
+      <c r="AA166" s="14">
+        <v>53</v>
+      </c>
+      <c r="AB166" s="14">
+        <v>61</v>
+      </c>
+      <c r="AD166" s="14">
+        <v>37</v>
+      </c>
+      <c r="AE166" s="14">
+        <v>45</v>
+      </c>
+      <c r="AG166" s="14">
+        <v>21</v>
+      </c>
+      <c r="AH166" s="14">
+        <v>29</v>
+      </c>
+      <c r="AJ166" s="14">
+        <v>5</v>
+      </c>
+      <c r="AK166" s="14">
+        <v>13</v>
+      </c>
+      <c r="AM166" s="15">
+        <v>53</v>
+      </c>
+      <c r="AN166" s="15">
+        <v>61</v>
+      </c>
+      <c r="AP166" s="15">
+        <v>37</v>
+      </c>
+      <c r="AQ166" s="15">
+        <v>45</v>
+      </c>
+      <c r="AS166" s="15">
+        <v>21</v>
+      </c>
+      <c r="AT166" s="15">
+        <v>29</v>
+      </c>
+      <c r="AV166" s="15">
+        <v>5</v>
+      </c>
+      <c r="AW166" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="3:49" x14ac:dyDescent="0.35">
+      <c r="C167" s="8">
+        <v>54</v>
+      </c>
+      <c r="D167" s="8">
+        <v>62</v>
+      </c>
+      <c r="F167" s="8">
+        <v>38</v>
+      </c>
+      <c r="G167" s="8">
+        <v>46</v>
+      </c>
+      <c r="I167" s="8">
+        <v>22</v>
+      </c>
+      <c r="J167" s="8">
+        <v>30</v>
+      </c>
+      <c r="L167" s="8">
+        <v>6</v>
+      </c>
+      <c r="M167" s="8">
         <v>14</v>
       </c>
-      <c r="L159" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M159" s="15"/>
-      <c r="O159" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P159" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R159" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="S159" s="16"/>
-      <c r="U159" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V159" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="X159" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y159" s="16"/>
-      <c r="AA159" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB159" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD159" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE159" s="17"/>
-      <c r="AG159" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH159" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ159" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK159" s="17"/>
-      <c r="AM159" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN159" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP159" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ159" s="18"/>
-      <c r="AS159" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT159" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV159" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW159" s="18"/>
-    </row>
-    <row r="160" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="O160" s="16"/>
-      <c r="P160" s="16"/>
-      <c r="R160" s="16"/>
-      <c r="S160" s="16"/>
-      <c r="U160" s="16"/>
-      <c r="V160" s="16"/>
-      <c r="X160" s="16"/>
-      <c r="Y160" s="16"/>
-      <c r="AA160" s="17"/>
-      <c r="AB160" s="17"/>
-      <c r="AD160" s="17"/>
-      <c r="AE160" s="17"/>
-      <c r="AG160" s="17"/>
-      <c r="AH160" s="17"/>
-      <c r="AJ160" s="17"/>
-      <c r="AK160" s="17"/>
-      <c r="AM160" s="18"/>
-      <c r="AN160" s="18"/>
-      <c r="AP160" s="18"/>
-      <c r="AQ160" s="18"/>
-      <c r="AS160" s="18"/>
-      <c r="AT160" s="18"/>
-      <c r="AV160" s="18"/>
-      <c r="AW160" s="18"/>
-    </row>
-    <row r="161" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C161" s="15">
-        <v>0</v>
-      </c>
-      <c r="D161" s="15">
-        <v>8</v>
-      </c>
-      <c r="F161" s="15">
-        <v>16</v>
-      </c>
-      <c r="G161" s="15">
-        <v>24</v>
-      </c>
-      <c r="I161" s="15">
-        <v>32</v>
-      </c>
-      <c r="J161" s="15">
-        <v>40</v>
-      </c>
-      <c r="L161" s="15">
-        <v>48</v>
-      </c>
-      <c r="M161" s="15">
-        <v>56</v>
-      </c>
-      <c r="O161" s="16">
-        <v>0</v>
-      </c>
-      <c r="P161" s="16">
-        <v>8</v>
-      </c>
-      <c r="R161" s="16">
-        <v>16</v>
-      </c>
-      <c r="S161" s="16">
-        <v>24</v>
-      </c>
-      <c r="U161" s="16">
-        <v>32</v>
-      </c>
-      <c r="V161" s="16">
-        <v>40</v>
-      </c>
-      <c r="X161" s="16">
-        <v>48</v>
-      </c>
-      <c r="Y161" s="16">
-        <v>56</v>
-      </c>
-      <c r="AA161" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB161" s="17">
-        <v>8</v>
-      </c>
-      <c r="AD161" s="17">
-        <v>16</v>
-      </c>
-      <c r="AE161" s="17">
-        <v>24</v>
-      </c>
-      <c r="AG161" s="17">
-        <v>32</v>
-      </c>
-      <c r="AH161" s="17">
-        <v>40</v>
-      </c>
-      <c r="AJ161" s="17">
-        <v>48</v>
-      </c>
-      <c r="AK161" s="17">
-        <v>56</v>
-      </c>
-      <c r="AM161" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN161" s="18">
-        <v>8</v>
-      </c>
-      <c r="AP161" s="18">
-        <v>16</v>
-      </c>
-      <c r="AQ161" s="18">
-        <v>24</v>
-      </c>
-      <c r="AS161" s="18">
-        <v>32</v>
-      </c>
-      <c r="AT161" s="18">
-        <v>40</v>
-      </c>
-      <c r="AV161" s="18">
-        <v>48</v>
-      </c>
-      <c r="AW161" s="18">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="162" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C162" s="15">
-        <v>1</v>
-      </c>
-      <c r="D162" s="15">
-        <v>9</v>
-      </c>
-      <c r="F162" s="15">
-        <v>17</v>
-      </c>
-      <c r="G162" s="15">
-        <v>25</v>
-      </c>
-      <c r="I162" s="15">
-        <v>33</v>
-      </c>
-      <c r="J162" s="15">
-        <v>41</v>
-      </c>
-      <c r="L162" s="15">
-        <v>49</v>
-      </c>
-      <c r="M162" s="15">
-        <v>57</v>
-      </c>
-      <c r="O162" s="16">
-        <v>1</v>
-      </c>
-      <c r="P162" s="16">
-        <v>9</v>
-      </c>
-      <c r="R162" s="16">
-        <v>17</v>
-      </c>
-      <c r="S162" s="16">
-        <v>25</v>
-      </c>
-      <c r="U162" s="16">
-        <v>33</v>
-      </c>
-      <c r="V162" s="16">
-        <v>41</v>
-      </c>
-      <c r="X162" s="16">
-        <v>49</v>
-      </c>
-      <c r="Y162" s="16">
-        <v>57</v>
-      </c>
-      <c r="AA162" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB162" s="17">
-        <v>9</v>
-      </c>
-      <c r="AD162" s="17">
-        <v>17</v>
-      </c>
-      <c r="AE162" s="17">
-        <v>25</v>
-      </c>
-      <c r="AG162" s="17">
-        <v>33</v>
-      </c>
-      <c r="AH162" s="17">
-        <v>41</v>
-      </c>
-      <c r="AJ162" s="17">
-        <v>49</v>
-      </c>
-      <c r="AK162" s="17">
-        <v>57</v>
-      </c>
-      <c r="AM162" s="18">
-        <v>1</v>
-      </c>
-      <c r="AN162" s="18">
-        <v>9</v>
-      </c>
-      <c r="AP162" s="18">
-        <v>17</v>
-      </c>
-      <c r="AQ162" s="18">
-        <v>25</v>
-      </c>
-      <c r="AS162" s="18">
-        <v>33</v>
-      </c>
-      <c r="AT162" s="18">
-        <v>41</v>
-      </c>
-      <c r="AV162" s="18">
-        <v>49</v>
-      </c>
-      <c r="AW162" s="18">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C163" s="15">
-        <v>2</v>
-      </c>
-      <c r="D163" s="15">
-        <v>10</v>
-      </c>
-      <c r="F163" s="15">
-        <v>18</v>
-      </c>
-      <c r="G163" s="15">
-        <v>26</v>
-      </c>
-      <c r="I163" s="15">
-        <v>34</v>
-      </c>
-      <c r="J163" s="15">
-        <v>42</v>
-      </c>
-      <c r="L163" s="15">
-        <v>50</v>
-      </c>
-      <c r="M163" s="15">
-        <v>58</v>
-      </c>
-      <c r="O163" s="16">
-        <v>2</v>
-      </c>
-      <c r="P163" s="16">
-        <v>10</v>
-      </c>
-      <c r="R163" s="16">
-        <v>18</v>
-      </c>
-      <c r="S163" s="16">
-        <v>26</v>
-      </c>
-      <c r="U163" s="16">
-        <v>34</v>
-      </c>
-      <c r="V163" s="16">
-        <v>42</v>
-      </c>
-      <c r="X163" s="16">
-        <v>50</v>
-      </c>
-      <c r="Y163" s="16">
-        <v>58</v>
-      </c>
-      <c r="AA163" s="17">
-        <v>2</v>
-      </c>
-      <c r="AB163" s="17">
-        <v>10</v>
-      </c>
-      <c r="AD163" s="17">
-        <v>18</v>
-      </c>
-      <c r="AE163" s="17">
-        <v>26</v>
-      </c>
-      <c r="AG163" s="17">
-        <v>34</v>
-      </c>
-      <c r="AH163" s="17">
-        <v>42</v>
-      </c>
-      <c r="AJ163" s="17">
-        <v>50</v>
-      </c>
-      <c r="AK163" s="17">
-        <v>58</v>
-      </c>
-      <c r="AM163" s="18">
-        <v>2</v>
-      </c>
-      <c r="AN163" s="18">
-        <v>10</v>
-      </c>
-      <c r="AP163" s="18">
-        <v>18</v>
-      </c>
-      <c r="AQ163" s="18">
-        <v>26</v>
-      </c>
-      <c r="AS163" s="18">
-        <v>34</v>
-      </c>
-      <c r="AT163" s="18">
-        <v>42</v>
-      </c>
-      <c r="AV163" s="18">
-        <v>50</v>
-      </c>
-      <c r="AW163" s="18">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="164" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C164" s="15">
-        <v>3</v>
-      </c>
-      <c r="D164" s="15">
-        <v>11</v>
-      </c>
-      <c r="F164" s="15">
-        <v>19</v>
-      </c>
-      <c r="G164" s="15">
-        <v>27</v>
-      </c>
-      <c r="I164" s="15">
-        <v>35</v>
-      </c>
-      <c r="J164" s="15">
-        <v>43</v>
-      </c>
-      <c r="L164" s="15">
-        <v>51</v>
-      </c>
-      <c r="M164" s="15">
-        <v>59</v>
-      </c>
-      <c r="O164" s="16">
-        <v>3</v>
-      </c>
-      <c r="P164" s="16">
-        <v>11</v>
-      </c>
-      <c r="R164" s="16">
-        <v>19</v>
-      </c>
-      <c r="S164" s="16">
-        <v>27</v>
-      </c>
-      <c r="U164" s="16">
-        <v>35</v>
-      </c>
-      <c r="V164" s="16">
-        <v>43</v>
-      </c>
-      <c r="X164" s="16">
-        <v>51</v>
-      </c>
-      <c r="Y164" s="16">
-        <v>59</v>
-      </c>
-      <c r="AA164" s="17">
-        <v>3</v>
-      </c>
-      <c r="AB164" s="17">
-        <v>11</v>
-      </c>
-      <c r="AD164" s="17">
-        <v>19</v>
-      </c>
-      <c r="AE164" s="17">
-        <v>27</v>
-      </c>
-      <c r="AG164" s="17">
-        <v>35</v>
-      </c>
-      <c r="AH164" s="17">
-        <v>43</v>
-      </c>
-      <c r="AJ164" s="17">
-        <v>51</v>
-      </c>
-      <c r="AK164" s="17">
-        <v>59</v>
-      </c>
-      <c r="AM164" s="18">
-        <v>3</v>
-      </c>
-      <c r="AN164" s="18">
-        <v>11</v>
-      </c>
-      <c r="AP164" s="18">
-        <v>19</v>
-      </c>
-      <c r="AQ164" s="18">
-        <v>27</v>
-      </c>
-      <c r="AS164" s="18">
-        <v>35</v>
-      </c>
-      <c r="AT164" s="18">
-        <v>43</v>
-      </c>
-      <c r="AV164" s="18">
-        <v>51</v>
-      </c>
-      <c r="AW164" s="18">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="165" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C165" s="15">
-        <v>4</v>
-      </c>
-      <c r="D165" s="15">
-        <v>12</v>
-      </c>
-      <c r="F165" s="15">
-        <v>20</v>
-      </c>
-      <c r="G165" s="15">
-        <v>28</v>
-      </c>
-      <c r="I165" s="15">
-        <v>36</v>
-      </c>
-      <c r="J165" s="15">
-        <v>44</v>
-      </c>
-      <c r="L165" s="15">
-        <v>52</v>
-      </c>
-      <c r="M165" s="15">
-        <v>60</v>
-      </c>
-      <c r="O165" s="16">
-        <v>4</v>
-      </c>
-      <c r="P165" s="16">
-        <v>12</v>
-      </c>
-      <c r="R165" s="16">
-        <v>20</v>
-      </c>
-      <c r="S165" s="16">
-        <v>28</v>
-      </c>
-      <c r="U165" s="16">
-        <v>36</v>
-      </c>
-      <c r="V165" s="16">
-        <v>44</v>
-      </c>
-      <c r="X165" s="16">
-        <v>52</v>
-      </c>
-      <c r="Y165" s="16">
-        <v>60</v>
-      </c>
-      <c r="AA165" s="17">
-        <v>4</v>
-      </c>
-      <c r="AB165" s="17">
-        <v>12</v>
-      </c>
-      <c r="AD165" s="17">
-        <v>20</v>
-      </c>
-      <c r="AE165" s="17">
-        <v>28</v>
-      </c>
-      <c r="AG165" s="17">
-        <v>36</v>
-      </c>
-      <c r="AH165" s="17">
-        <v>44</v>
-      </c>
-      <c r="AJ165" s="17">
-        <v>52</v>
-      </c>
-      <c r="AK165" s="17">
-        <v>60</v>
-      </c>
-      <c r="AM165" s="18">
-        <v>4</v>
-      </c>
-      <c r="AN165" s="18">
-        <v>12</v>
-      </c>
-      <c r="AP165" s="18">
-        <v>20</v>
-      </c>
-      <c r="AQ165" s="18">
-        <v>28</v>
-      </c>
-      <c r="AS165" s="18">
-        <v>36</v>
-      </c>
-      <c r="AT165" s="18">
-        <v>44</v>
-      </c>
-      <c r="AV165" s="18">
-        <v>52</v>
-      </c>
-      <c r="AW165" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C166" s="15">
-        <v>5</v>
-      </c>
-      <c r="D166" s="15">
-        <v>13</v>
-      </c>
-      <c r="F166" s="15">
-        <v>21</v>
-      </c>
-      <c r="G166" s="15">
-        <v>29</v>
-      </c>
-      <c r="I166" s="15">
-        <v>37</v>
-      </c>
-      <c r="J166" s="15">
-        <v>45</v>
-      </c>
-      <c r="L166" s="15">
-        <v>53</v>
-      </c>
-      <c r="M166" s="15">
-        <v>61</v>
-      </c>
-      <c r="O166" s="16">
-        <v>5</v>
-      </c>
-      <c r="P166" s="16">
-        <v>13</v>
-      </c>
-      <c r="R166" s="16">
-        <v>21</v>
-      </c>
-      <c r="S166" s="16">
-        <v>29</v>
-      </c>
-      <c r="U166" s="16">
-        <v>37</v>
-      </c>
-      <c r="V166" s="16">
-        <v>45</v>
-      </c>
-      <c r="X166" s="16">
-        <v>53</v>
-      </c>
-      <c r="Y166" s="16">
-        <v>61</v>
-      </c>
-      <c r="AA166" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB166" s="17">
-        <v>13</v>
-      </c>
-      <c r="AD166" s="17">
-        <v>21</v>
-      </c>
-      <c r="AE166" s="17">
-        <v>29</v>
-      </c>
-      <c r="AG166" s="17">
-        <v>37</v>
-      </c>
-      <c r="AH166" s="17">
-        <v>45</v>
-      </c>
-      <c r="AJ166" s="17">
-        <v>53</v>
-      </c>
-      <c r="AK166" s="17">
-        <v>61</v>
-      </c>
-      <c r="AM166" s="18">
-        <v>5</v>
-      </c>
-      <c r="AN166" s="18">
-        <v>13</v>
-      </c>
-      <c r="AP166" s="18">
-        <v>21</v>
-      </c>
-      <c r="AQ166" s="18">
-        <v>29</v>
-      </c>
-      <c r="AS166" s="18">
-        <v>37</v>
-      </c>
-      <c r="AT166" s="18">
-        <v>45</v>
-      </c>
-      <c r="AV166" s="18">
-        <v>53</v>
-      </c>
-      <c r="AW166" s="18">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C167" s="15">
+      <c r="O167" s="9">
+        <v>54</v>
+      </c>
+      <c r="P167" s="9">
+        <v>62</v>
+      </c>
+      <c r="R167" s="9">
+        <v>38</v>
+      </c>
+      <c r="S167" s="9">
+        <v>46</v>
+      </c>
+      <c r="U167" s="9">
+        <v>22</v>
+      </c>
+      <c r="V167" s="9">
+        <v>30</v>
+      </c>
+      <c r="X167" s="9">
         <v>6</v>
       </c>
-      <c r="D167" s="15">
+      <c r="Y167" s="9">
         <v>14</v>
       </c>
-      <c r="F167" s="15">
+      <c r="AA167" s="14">
+        <v>54</v>
+      </c>
+      <c r="AB167" s="14">
+        <v>62</v>
+      </c>
+      <c r="AD167" s="14">
+        <v>38</v>
+      </c>
+      <c r="AE167" s="14">
+        <v>46</v>
+      </c>
+      <c r="AG167" s="14">
         <v>22</v>
       </c>
-      <c r="G167" s="15">
+      <c r="AH167" s="14">
         <v>30</v>
       </c>
-      <c r="I167" s="15">
+      <c r="AJ167" s="14">
+        <v>6</v>
+      </c>
+      <c r="AK167" s="14">
+        <v>14</v>
+      </c>
+      <c r="AM167" s="15">
+        <v>54</v>
+      </c>
+      <c r="AN167" s="15">
+        <v>62</v>
+      </c>
+      <c r="AP167" s="15">
         <v>38</v>
       </c>
-      <c r="J167" s="15">
+      <c r="AQ167" s="15">
         <v>46</v>
       </c>
-      <c r="L167" s="15">
-        <v>54</v>
-      </c>
-      <c r="M167" s="15">
-        <v>62</v>
-      </c>
-      <c r="O167" s="16">
+      <c r="AS167" s="15">
+        <v>22</v>
+      </c>
+      <c r="AT167" s="15">
+        <v>30</v>
+      </c>
+      <c r="AV167" s="15">
         <v>6</v>
       </c>
-      <c r="P167" s="16">
+      <c r="AW167" s="15">
         <v>14</v>
       </c>
-      <c r="R167" s="16">
-        <v>22</v>
-      </c>
-      <c r="S167" s="16">
-        <v>30</v>
-      </c>
-      <c r="U167" s="16">
-        <v>38</v>
-      </c>
-      <c r="V167" s="16">
-        <v>46</v>
-      </c>
-      <c r="X167" s="16">
-        <v>54</v>
-      </c>
-      <c r="Y167" s="16">
-        <v>62</v>
-      </c>
-      <c r="AA167" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB167" s="17">
-        <v>14</v>
-      </c>
-      <c r="AD167" s="17">
-        <v>22</v>
-      </c>
-      <c r="AE167" s="17">
-        <v>30</v>
-      </c>
-      <c r="AG167" s="17">
-        <v>38</v>
-      </c>
-      <c r="AH167" s="17">
-        <v>46</v>
-      </c>
-      <c r="AJ167" s="17">
-        <v>54</v>
-      </c>
-      <c r="AK167" s="17">
-        <v>62</v>
-      </c>
-      <c r="AM167" s="18">
-        <v>6</v>
-      </c>
-      <c r="AN167" s="18">
-        <v>14</v>
-      </c>
-      <c r="AP167" s="18">
-        <v>22</v>
-      </c>
-      <c r="AQ167" s="18">
-        <v>30</v>
-      </c>
-      <c r="AS167" s="18">
-        <v>38</v>
-      </c>
-      <c r="AT167" s="18">
-        <v>46</v>
-      </c>
-      <c r="AV167" s="18">
-        <v>54</v>
-      </c>
-      <c r="AW167" s="18">
-        <v>62</v>
-      </c>
     </row>
     <row r="168" spans="3:49" x14ac:dyDescent="0.35">
-      <c r="C168" s="15">
+      <c r="C168" s="8">
+        <v>55</v>
+      </c>
+      <c r="D168" s="8">
+        <v>63</v>
+      </c>
+      <c r="F168" s="8">
+        <v>39</v>
+      </c>
+      <c r="G168" s="8">
+        <v>47</v>
+      </c>
+      <c r="I168" s="8">
+        <v>23</v>
+      </c>
+      <c r="J168" s="8">
+        <v>31</v>
+      </c>
+      <c r="L168" s="8">
         <v>7</v>
       </c>
-      <c r="D168" s="15">
+      <c r="M168" s="8">
         <v>15</v>
       </c>
-      <c r="F168" s="15">
+      <c r="O168" s="9">
+        <v>55</v>
+      </c>
+      <c r="P168" s="9">
+        <v>63</v>
+      </c>
+      <c r="R168" s="9">
+        <v>39</v>
+      </c>
+      <c r="S168" s="9">
+        <v>47</v>
+      </c>
+      <c r="U168" s="9">
         <v>23</v>
       </c>
-      <c r="G168" s="15">
+      <c r="V168" s="9">
         <v>31</v>
       </c>
-      <c r="I168" s="15">
+      <c r="X168" s="9">
+        <v>7</v>
+      </c>
+      <c r="Y168" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA168" s="14">
+        <v>55</v>
+      </c>
+      <c r="AB168" s="14">
+        <v>63</v>
+      </c>
+      <c r="AD168" s="14">
         <v>39</v>
       </c>
-      <c r="J168" s="15">
+      <c r="AE168" s="14">
         <v>47</v>
       </c>
-      <c r="L168" s="15">
+      <c r="AG168" s="14">
+        <v>23</v>
+      </c>
+      <c r="AH168" s="14">
+        <v>31</v>
+      </c>
+      <c r="AJ168" s="14">
+        <v>7</v>
+      </c>
+      <c r="AK168" s="14">
+        <v>15</v>
+      </c>
+      <c r="AM168" s="15">
         <v>55</v>
       </c>
-      <c r="M168" s="15">
+      <c r="AN168" s="15">
         <v>63</v>
       </c>
-      <c r="O168" s="16">
+      <c r="AP168" s="15">
+        <v>39</v>
+      </c>
+      <c r="AQ168" s="15">
+        <v>47</v>
+      </c>
+      <c r="AS168" s="15">
+        <v>23</v>
+      </c>
+      <c r="AT168" s="15">
+        <v>31</v>
+      </c>
+      <c r="AV168" s="15">
         <v>7</v>
       </c>
-      <c r="P168" s="16">
+      <c r="AW168" s="15">
         <v>15</v>
-      </c>
-      <c r="R168" s="16">
-        <v>23</v>
-      </c>
-      <c r="S168" s="16">
-        <v>31</v>
-      </c>
-      <c r="U168" s="16">
-        <v>39</v>
-      </c>
-      <c r="V168" s="16">
-        <v>47</v>
-      </c>
-      <c r="X168" s="16">
-        <v>55</v>
-      </c>
-      <c r="Y168" s="16">
-        <v>63</v>
-      </c>
-      <c r="AA168" s="17">
-        <v>7</v>
-      </c>
-      <c r="AB168" s="17">
-        <v>15</v>
-      </c>
-      <c r="AD168" s="17">
-        <v>23</v>
-      </c>
-      <c r="AE168" s="17">
-        <v>31</v>
-      </c>
-      <c r="AG168" s="17">
-        <v>39</v>
-      </c>
-      <c r="AH168" s="17">
-        <v>47</v>
-      </c>
-      <c r="AJ168" s="17">
-        <v>55</v>
-      </c>
-      <c r="AK168" s="17">
-        <v>63</v>
-      </c>
-      <c r="AM168" s="18">
-        <v>7</v>
-      </c>
-      <c r="AN168" s="18">
-        <v>15</v>
-      </c>
-      <c r="AP168" s="18">
-        <v>23</v>
-      </c>
-      <c r="AQ168" s="18">
-        <v>31</v>
-      </c>
-      <c r="AS168" s="18">
-        <v>39</v>
-      </c>
-      <c r="AT168" s="18">
-        <v>47</v>
-      </c>
-      <c r="AV168" s="18">
-        <v>55</v>
-      </c>
-      <c r="AW168" s="18">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
